--- a/documents/10.ProjectSprintBacklog.xlsx
+++ b/documents/10.ProjectSprintBacklog.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="181">
   <si>
     <t>Project name:</t>
   </si>
@@ -556,9 +556,6 @@
     <t>Sửa lỗi quản lý thống kê</t>
   </si>
   <si>
-    <t>Chương,Đạt</t>
-  </si>
-  <si>
     <t>Kiểm tra lại quản lý học viên</t>
   </si>
   <si>
@@ -575,9 +572,6 @@
   </si>
   <si>
     <t>Kiểm tra lại quản lý thống kê</t>
-  </si>
-  <si>
-    <t>Hiếu,Triết</t>
   </si>
   <si>
     <t xml:space="preserve">Xây dựng nền tảng giáo dục trực tuyến tích hợp AI, cổng thanh toán VNPAY
@@ -597,7 +591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,14 +1211,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1240,32 +1232,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1303,32 +1276,53 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,10 +1330,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,6 +1408,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Ước tính</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1535,19 +1532,19 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>318</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>233</c:v>
@@ -1556,7 +1553,7 @@
                   <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>203</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>190</c:v>
@@ -1583,7 +1580,7 @@
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>115</c:v>
@@ -1592,22 +1589,22 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>49</c:v>
@@ -1643,6 +1640,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Thực tế</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1773,7 +1773,7 @@
                   <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>265</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>246</c:v>
@@ -1821,25 +1821,25 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>36</c:v>
@@ -1946,6 +1946,512 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Biểu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> đồ đóng góp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="39600" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 1'!$C$9:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Trần Trung Hiếu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trần Tiến Đạt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nguyễn An Phú</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nguyễn Thân Nguyên Chương</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nguyễn Minh Triết</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-126D-4C30-940F-BC6D5706E604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 1'!$C$9:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Trần Trung Hiếu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trần Tiến Đạt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nguyễn An Phú</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nguyễn Thân Nguyên Chương</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nguyễn Minh Triết</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>121.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-126D-4C30-940F-BC6D5706E604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8149482950584694E-3"/>
+          <c:y val="0.41246841556087627"/>
+          <c:w val="0.28362186533478767"/>
+          <c:h val="0.31049241926161236"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -2333,6 +2839,1887 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Phần</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> trăm đóng góp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F894-4AAE-BDC7-BDDFB77DA069}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F894-4AAE-BDC7-BDDFB77DA069}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F894-4AAE-BDC7-BDDFB77DA069}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-F894-4AAE-BDC7-BDDFB77DA069}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F894-4AAE-BDC7-BDDFB77DA069}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F894-4AAE-BDC7-BDDFB77DA069}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F894-4AAE-BDC7-BDDFB77DA069}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F894-4AAE-BDC7-BDDFB77DA069}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-F894-4AAE-BDC7-BDDFB77DA069}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F894-4AAE-BDC7-BDDFB77DA069}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$C$9:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Trần Trung Hiếu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trần Tiến Đạt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nguyễn An Phú</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nguyễn Thân Nguyên Chương</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nguyễn Minh Triết</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F894-4AAE-BDC7-BDDFB77DA069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$C$9:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Trần Trung Hiếu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trần Tiến Đạt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nguyễn An Phú</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nguyễn Thân Nguyên Chương</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nguyễn Minh Triết</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F894-4AAE-BDC7-BDDFB77DA069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.3225919887027733E-2"/>
+          <c:y val="0.40257794127943675"/>
+          <c:w val="0.33148911013858756"/>
+          <c:h val="0.32551845474086083"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2371,6 +4758,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>184925</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>196672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>245466</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>60838</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2378,16 +4795,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>728060</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>366598</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>31373</xdr:rowOff>
+      <xdr:rowOff>177912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>131267</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182266</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>92191</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2407,6 +4824,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212479</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>13899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>78153</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2680,11 +5127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="42" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV129" sqref="AV129"/>
+    <sheetView tabSelected="1" topLeftCell="C102" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -2709,31 +5156,31 @@
     <col min="42" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="70" t="s">
-        <v>180</v>
+    <row r="1" spans="1:41" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="63" t="s">
+        <v>178</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:41" ht="17.399999999999999" thickBot="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="71"/>
+    <row r="2" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="64"/>
       <c r="E2" s="40"/>
       <c r="F2" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="17.399999999999999" thickBot="1">
-      <c r="A3" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="83"/>
+    <row r="3" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2742,11 +5189,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="17.399999999999999" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="79"/>
+    <row r="4" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="72"/>
       <c r="C4" s="4">
         <v>45741</v>
       </c>
@@ -2755,11 +5202,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="79"/>
+    <row r="5" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="72"/>
       <c r="C5" s="4">
         <v>45772</v>
       </c>
@@ -2768,21 +5215,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="17.399999999999999" thickBot="1">
-      <c r="B7" s="80" t="s">
+    <row r="7" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
     </row>
-    <row r="8" spans="1:41" ht="17.399999999999999" thickBot="1">
+    <row r="8" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +5243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="17.399999999999999" thickBot="1">
+    <row r="9" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -2805,14 +5252,14 @@
       </c>
       <c r="D9" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Hiếu",$G$17:$G$118)+SUMIF($E$17:$F$118,"All team",$G$17:$G$118)/5+SUMIF($E$17:$F$118,"Hiếu,Đạt",$G$17:$G$118)/2</f>
-        <v>113</v>
+        <v>102.6</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Hiếu",$H$17:$H$118)+SUMIF($E$17:$F$118,"ALL team",$H$17:$H$118)/5+SUMIF($E$17:$F$118,"Hiếu,Đạt",$H$17:$H$118)/2</f>
         <v>121.6</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="17.399999999999999" thickBot="1">
+    <row r="10" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
         <v>2</v>
       </c>
@@ -2821,14 +5268,14 @@
       </c>
       <c r="D10" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Đạt",$G$17:$G$118)+SUMIF($E$17:$F$118,"All team",$G$17:$G$118)/5+SUMIF($E$17:$F$118,"Hiếu,Đạt",$G$17:$G$118)/2</f>
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Đạt",$H$17:$H$118)+SUMIF($E$17:$F$118,"ALL team",$H$17:$H$118)/5+SUMIF($E$17:$F$118,"Hiếu,Đạt",$H$17:$H$118)/2</f>
         <v>43.6</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="17.399999999999999" thickBot="1">
+    <row r="11" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
         <v>3</v>
       </c>
@@ -2837,14 +5284,14 @@
       </c>
       <c r="D11" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Phú",$G$17:$G$118)+SUMIF($E$17:$F$118,"All team",$G$17:$G$118)/5</f>
-        <v>62</v>
+        <v>57.6</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Phú",$H$17:$H$118)+SUMIF($E$17:$F$118,"All team",$H$17:$H$118)/5</f>
         <v>62.6</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="17.399999999999999" thickBot="1">
+    <row r="12" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8">
         <v>4</v>
       </c>
@@ -2853,14 +5300,14 @@
       </c>
       <c r="D12" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Chương",$G$17:$G$118)+SUMIF($E$17:$F$118,"All team",$G$17:$G$118)/5</f>
-        <v>64</v>
+        <v>60.6</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Chương",$H$17:$H$118)+SUMIF($E$17:$F$118,"All team",$H$17:$H$118)/5</f>
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="17.399999999999999" thickBot="1">
+    <row r="13" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8">
         <v>5</v>
       </c>
@@ -2869,42 +5316,42 @@
       </c>
       <c r="D13" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Triết",$G$17:$G$118)+SUMIF($E$17:$F$118,"All team",$G$17:$G$118)/5</f>
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="E13" s="3">
         <f ca="1">SUMIF($E$17:$F$118,"Triết",$H$17:$H$118)+SUMIF($E$17:$F$118,"All team",$H$17:$H$118)/5</f>
         <v>31.6</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="17.399999999999999" thickBot="1">
-      <c r="B14" s="80" t="s">
+    <row r="14" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="80"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="5">
         <f ca="1">SUM(D9:D13)</f>
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E14" s="5">
         <f ca="1">SUM(E9:E13)</f>
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="63.75" customHeight="1">
+    <row r="16" spans="1:41" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="76" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="77"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="19" t="s">
         <v>10</v>
       </c>
@@ -3011,19 +5458,19 @@
         <v>45773</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="57"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="21">
         <v>7</v>
       </c>
@@ -3130,19 +5577,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A18" s="57"/>
       <c r="B18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="51"/>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="57"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="21">
         <v>4</v>
@@ -3151,7 +5598,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="22">
         <v>0</v>
@@ -3247,19 +5694,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
-      <c r="A19" s="59"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A19" s="57"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -3292,17 +5739,17 @@
       <c r="AN19" s="21"/>
       <c r="AO19" s="21"/>
     </row>
-    <row r="20" spans="1:41">
-      <c r="A20" s="59"/>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A20" s="57"/>
       <c r="B20" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="51"/>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="57"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="21">
         <v>4</v>
       </c>
@@ -3409,19 +5856,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="58" t="s">
+    <row r="21" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57"/>
+      <c r="B21" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="50" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="51"/>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="57"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="21">
         <v>4</v>
       </c>
@@ -3528,17 +5975,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="51"/>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="57"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="21">
         <v>4</v>
       </c>
@@ -3645,17 +6092,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="51"/>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="57"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="21">
         <v>4</v>
       </c>
@@ -3762,17 +6209,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="50" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="57"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="21">
         <v>4</v>
       </c>
@@ -3879,19 +6326,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="51"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="57"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="21">
         <v>4</v>
@@ -3906,7 +6353,7 @@
         <v>4</v>
       </c>
       <c r="L25" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25" s="22">
         <v>0</v>
@@ -3996,21 +6443,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="24">
-        <v>1</v>
+      <c r="M26" s="23">
+        <v>3</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
@@ -4041,17 +6488,17 @@
       <c r="AN26" s="21"/>
       <c r="AO26" s="21"/>
     </row>
-    <row r="27" spans="1:41">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="54" t="s">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="21">
         <v>4</v>
       </c>
@@ -4158,17 +6605,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="54" t="s">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56" t="s">
+      <c r="D28" s="60"/>
+      <c r="E28" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="21">
         <v>4</v>
       </c>
@@ -4275,17 +6722,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="54" t="s">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="21">
         <v>4</v>
       </c>
@@ -4392,17 +6839,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="54" t="s">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="60"/>
+      <c r="E30" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="57"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="21">
         <v>4</v>
       </c>
@@ -4509,17 +6956,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="54" t="s">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="21">
         <v>4</v>
       </c>
@@ -4576,17 +7023,17 @@
       <c r="AN31" s="21"/>
       <c r="AO31" s="21"/>
     </row>
-    <row r="32" spans="1:41">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="54" t="s">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="21">
         <v>4</v>
       </c>
@@ -4693,19 +7140,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="50" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="51"/>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" s="21">
         <v>10</v>
@@ -4735,7 +7182,7 @@
         <v>10</v>
       </c>
       <c r="Q33" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R33" s="22">
         <v>0</v>
@@ -4810,13 +7257,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A34" s="57"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -4828,7 +7275,7 @@
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
@@ -4854,19 +7301,19 @@
       <c r="AN34" s="21"/>
       <c r="AO34" s="21"/>
     </row>
-    <row r="35" spans="1:41">
-      <c r="A35" s="59"/>
-      <c r="B35" s="58" t="s">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A35" s="57"/>
+      <c r="B35" s="56" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="51"/>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="21">
         <v>2</v>
       </c>
@@ -4973,13 +7420,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="55"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
@@ -5017,17 +7464,17 @@
       <c r="AN36" s="21"/>
       <c r="AO36" s="21"/>
     </row>
-    <row r="37" spans="1:41">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="51"/>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="57"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="21">
         <v>4</v>
       </c>
@@ -5134,17 +7581,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="50" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="51"/>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="21">
         <v>3</v>
       </c>
@@ -5251,13 +7698,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -5296,17 +7743,17 @@
       <c r="AN39" s="21"/>
       <c r="AO39" s="21"/>
     </row>
-    <row r="40" spans="1:41">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="50" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="51"/>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="21">
         <v>4</v>
       </c>
@@ -5413,19 +7860,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="50" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="51"/>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41" s="21">
         <v>4</v>
@@ -5446,7 +7893,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O41" s="22">
         <v>0</v>
@@ -5528,13 +7975,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -5543,7 +7990,7 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
-      <c r="O42" s="24">
+      <c r="O42" s="23">
         <v>1</v>
       </c>
       <c r="P42" s="21"/>
@@ -5573,17 +8020,17 @@
       <c r="AN42" s="21"/>
       <c r="AO42" s="21"/>
     </row>
-    <row r="43" spans="1:41">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="54" t="s">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="56" t="s">
+      <c r="D43" s="60"/>
+      <c r="E43" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="55"/>
       <c r="G43" s="21">
         <v>4</v>
       </c>
@@ -5690,17 +8137,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="51"/>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="57"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="21">
         <v>4</v>
       </c>
@@ -5807,17 +8254,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D45" s="51"/>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="57"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="21">
         <v>4</v>
       </c>
@@ -5924,17 +8371,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="54" t="s">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56" t="s">
+      <c r="D46" s="60"/>
+      <c r="E46" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="57"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="21">
         <v>4</v>
       </c>
@@ -6041,17 +8488,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="54" t="s">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="56" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="57"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="21">
         <v>4</v>
       </c>
@@ -6158,17 +8605,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="54" t="s">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56" t="s">
+      <c r="D48" s="60"/>
+      <c r="E48" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="57"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="21">
         <v>4</v>
       </c>
@@ -6275,17 +8722,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="51"/>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="57"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="21">
         <v>4</v>
       </c>
@@ -6392,13 +8839,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -6436,19 +8883,19 @@
       <c r="AN50" s="21"/>
       <c r="AO50" s="21"/>
     </row>
-    <row r="51" spans="1:41">
-      <c r="A51" s="59"/>
-      <c r="B51" s="58" t="s">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A51" s="57"/>
+      <c r="B51" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="51"/>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="57"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="21">
         <v>4</v>
       </c>
@@ -6555,17 +9002,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="50" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="51"/>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="57"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="21">
         <v>6</v>
       </c>
@@ -6672,17 +9119,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="50" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="51"/>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="57"/>
+      <c r="F53" s="55"/>
       <c r="G53" s="21">
         <v>2</v>
       </c>
@@ -6789,13 +9236,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
@@ -6834,17 +9281,17 @@
       <c r="AN54" s="21"/>
       <c r="AO54" s="21"/>
     </row>
-    <row r="55" spans="1:41">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D55" s="51"/>
-      <c r="E55" s="56" t="s">
+      <c r="E55" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="57"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="21">
         <v>6</v>
       </c>
@@ -6951,17 +9398,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="50" t="s">
         <v>84</v>
       </c>
       <c r="D56" s="51"/>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="57"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="21">
         <v>4</v>
       </c>
@@ -7068,17 +9515,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="50" t="s">
         <v>85</v>
       </c>
       <c r="D57" s="51"/>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="57"/>
+      <c r="F57" s="55"/>
       <c r="G57" s="21">
         <v>6</v>
       </c>
@@ -7185,17 +9632,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="50" t="s">
         <v>86</v>
       </c>
       <c r="D58" s="51"/>
-      <c r="E58" s="56" t="s">
+      <c r="E58" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="57"/>
+      <c r="F58" s="55"/>
       <c r="G58" s="21">
         <v>4</v>
       </c>
@@ -7302,17 +9749,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="50" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="51"/>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="57"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="21">
         <v>3</v>
       </c>
@@ -7419,13 +9866,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="57"/>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="55"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -7464,19 +9911,19 @@
       <c r="AN60" s="21"/>
       <c r="AO60" s="21"/>
     </row>
-    <row r="61" spans="1:41">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="50" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="51"/>
-      <c r="E61" s="56" t="s">
+      <c r="E61" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="57"/>
+      <c r="F61" s="55"/>
       <c r="G61" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H61" s="21">
         <v>4</v>
@@ -7497,7 +9944,7 @@
         <v>4</v>
       </c>
       <c r="N61" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O61" s="22">
         <v>0</v>
@@ -7581,13 +10028,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="55"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
@@ -7596,8 +10043,8 @@
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
-      <c r="O62" s="24">
-        <v>2</v>
+      <c r="O62" s="23">
+        <v>1</v>
       </c>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
@@ -7626,17 +10073,17 @@
       <c r="AN62" s="21"/>
       <c r="AO62" s="21"/>
     </row>
-    <row r="63" spans="1:41">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="50" t="s">
         <v>89</v>
       </c>
       <c r="D63" s="51"/>
-      <c r="E63" s="56" t="s">
+      <c r="E63" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="57"/>
+      <c r="F63" s="55"/>
       <c r="G63" s="21">
         <v>6</v>
       </c>
@@ -7743,17 +10190,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="50" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="51"/>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="57"/>
+      <c r="F64" s="55"/>
       <c r="G64" s="21">
         <v>2</v>
       </c>
@@ -7860,19 +10307,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="50" t="s">
         <v>91</v>
       </c>
       <c r="D65" s="51"/>
-      <c r="E65" s="56" t="s">
+      <c r="E65" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F65" s="57"/>
+      <c r="F65" s="55"/>
       <c r="G65" s="21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H65" s="21">
         <v>6</v>
@@ -7929,7 +10376,7 @@
         <v>6</v>
       </c>
       <c r="Z65" s="21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA65" s="22">
         <v>0</v>
@@ -7977,13 +10424,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="55"/>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
@@ -8004,8 +10451,8 @@
       <c r="X66" s="21"/>
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
-      <c r="AA66" s="24">
-        <v>1</v>
+      <c r="AA66" s="23">
+        <v>2</v>
       </c>
       <c r="AB66" s="21"/>
       <c r="AC66" s="21"/>
@@ -8022,17 +10469,17 @@
       <c r="AN66" s="21"/>
       <c r="AO66" s="21"/>
     </row>
-    <row r="67" spans="1:41">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="50" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="51"/>
-      <c r="E67" s="56" t="s">
+      <c r="E67" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F67" s="57"/>
+      <c r="F67" s="55"/>
       <c r="G67" s="21">
         <v>4</v>
       </c>
@@ -8139,17 +10586,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="50" t="s">
         <v>93</v>
       </c>
       <c r="D68" s="51"/>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F68" s="57"/>
+      <c r="F68" s="55"/>
       <c r="G68" s="21">
         <v>6</v>
       </c>
@@ -8256,17 +10703,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="50" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="51"/>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F69" s="57"/>
+      <c r="F69" s="55"/>
       <c r="G69" s="21">
         <v>4</v>
       </c>
@@ -8373,17 +10820,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="50" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="51"/>
-      <c r="E70" s="56" t="s">
+      <c r="E70" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="57"/>
+      <c r="F70" s="55"/>
       <c r="G70" s="21">
         <v>6</v>
       </c>
@@ -8490,17 +10937,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="50" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="51"/>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="57"/>
+      <c r="F71" s="55"/>
       <c r="G71" s="21">
         <v>4</v>
       </c>
@@ -8607,17 +11054,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="50" t="s">
         <v>97</v>
       </c>
       <c r="D72" s="51"/>
-      <c r="E72" s="56" t="s">
+      <c r="E72" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="57"/>
+      <c r="F72" s="55"/>
       <c r="G72" s="21">
         <v>6</v>
       </c>
@@ -8724,17 +11171,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="50" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="51"/>
-      <c r="E73" s="56" t="s">
+      <c r="E73" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F73" s="57"/>
+      <c r="F73" s="55"/>
       <c r="G73" s="21">
         <v>4</v>
       </c>
@@ -8841,17 +11288,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="50" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="51"/>
-      <c r="E74" s="56" t="s">
+      <c r="E74" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="57"/>
+      <c r="F74" s="55"/>
       <c r="G74" s="21">
         <v>3</v>
       </c>
@@ -8958,13 +11405,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="55"/>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
@@ -9003,17 +11450,17 @@
       <c r="AN75" s="21"/>
       <c r="AO75" s="21"/>
     </row>
-    <row r="76" spans="1:41">
-      <c r="A76" s="59"/>
-      <c r="B76" s="59"/>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="50" t="s">
         <v>100</v>
       </c>
       <c r="D76" s="51"/>
-      <c r="E76" s="56" t="s">
+      <c r="E76" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="57"/>
+      <c r="F76" s="55"/>
       <c r="G76" s="21">
         <v>4</v>
       </c>
@@ -9120,17 +11567,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="50" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="51"/>
-      <c r="E77" s="56" t="s">
+      <c r="E77" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F77" s="57"/>
+      <c r="F77" s="55"/>
       <c r="G77" s="21">
         <v>8</v>
       </c>
@@ -9198,10 +11645,10 @@
         <v>12</v>
       </c>
       <c r="AC77" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD77" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE77" s="21">
         <v>8</v>
@@ -9237,13 +11684,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
-      <c r="A78" s="59"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="57"/>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
@@ -9282,17 +11729,17 @@
       <c r="AN78" s="21"/>
       <c r="AO78" s="21"/>
     </row>
-    <row r="79" spans="1:41">
-      <c r="A79" s="59"/>
-      <c r="B79" s="59"/>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
       <c r="C79" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D79" s="51"/>
-      <c r="E79" s="56" t="s">
+      <c r="E79" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="F79" s="57"/>
+      <c r="F79" s="55"/>
       <c r="G79" s="21">
         <v>6</v>
       </c>
@@ -9369,10 +11816,10 @@
         <v>10</v>
       </c>
       <c r="AF79" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG79" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH79" s="21">
         <v>6</v>
@@ -9399,13 +11846,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
-      <c r="A80" s="59"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="57"/>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A80" s="57"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="55"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
@@ -9443,19 +11890,19 @@
       <c r="AN80" s="21"/>
       <c r="AO80" s="21"/>
     </row>
-    <row r="81" spans="1:41">
-      <c r="A81" s="59"/>
-      <c r="B81" s="58" t="s">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A81" s="57"/>
+      <c r="B81" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="51"/>
-      <c r="E81" s="56" t="s">
+      <c r="E81" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F81" s="57"/>
+      <c r="F81" s="55"/>
       <c r="G81" s="21">
         <v>1</v>
       </c>
@@ -9562,17 +12009,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
-      <c r="A82" s="59"/>
-      <c r="B82" s="59"/>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="50" t="s">
         <v>105</v>
       </c>
       <c r="D82" s="51"/>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F82" s="57"/>
+      <c r="F82" s="55"/>
       <c r="G82" s="21">
         <v>1</v>
       </c>
@@ -9679,17 +12126,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="50" t="s">
         <v>106</v>
       </c>
       <c r="D83" s="51"/>
-      <c r="E83" s="56" t="s">
+      <c r="E83" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F83" s="57"/>
+      <c r="F83" s="55"/>
       <c r="G83" s="21">
         <v>1</v>
       </c>
@@ -9796,17 +12243,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A84" s="57"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="50" t="s">
         <v>107</v>
       </c>
       <c r="D84" s="51"/>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="57"/>
+      <c r="F84" s="55"/>
       <c r="G84" s="21">
         <v>1</v>
       </c>
@@ -9913,17 +12360,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D85" s="51"/>
-      <c r="E85" s="56" t="s">
+      <c r="E85" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="57"/>
+      <c r="F85" s="55"/>
       <c r="G85" s="21">
         <v>1</v>
       </c>
@@ -10030,17 +12477,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="50" t="s">
         <v>109</v>
       </c>
       <c r="D86" s="51"/>
-      <c r="E86" s="56" t="s">
+      <c r="E86" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F86" s="57"/>
+      <c r="F86" s="55"/>
       <c r="G86" s="21">
         <v>1</v>
       </c>
@@ -10147,17 +12594,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
-      <c r="A87" s="59"/>
-      <c r="B87" s="59"/>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A87" s="57"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="50" t="s">
         <v>110</v>
       </c>
       <c r="D87" s="51"/>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F87" s="57"/>
+      <c r="F87" s="55"/>
       <c r="G87" s="21">
         <v>1</v>
       </c>
@@ -10264,17 +12711,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
-      <c r="A88" s="59"/>
-      <c r="B88" s="59"/>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="50" t="s">
         <v>111</v>
       </c>
       <c r="D88" s="51"/>
-      <c r="E88" s="56" t="s">
+      <c r="E88" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F88" s="57"/>
+      <c r="F88" s="55"/>
       <c r="G88" s="21">
         <v>1</v>
       </c>
@@ -10381,17 +12828,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
-      <c r="A89" s="59"/>
-      <c r="B89" s="59"/>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="50" t="s">
         <v>112</v>
       </c>
       <c r="D89" s="51"/>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F89" s="57"/>
+      <c r="F89" s="55"/>
       <c r="G89" s="21">
         <v>1</v>
       </c>
@@ -10498,17 +12945,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
-      <c r="A90" s="59"/>
-      <c r="B90" s="59"/>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D90" s="51"/>
-      <c r="E90" s="56" t="s">
+      <c r="E90" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="57"/>
+      <c r="F90" s="55"/>
       <c r="G90" s="21">
         <v>1</v>
       </c>
@@ -10615,17 +13062,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
-      <c r="A91" s="59"/>
-      <c r="B91" s="59"/>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A91" s="57"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D91" s="51"/>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F91" s="57"/>
+      <c r="F91" s="55"/>
       <c r="G91" s="21">
         <v>1</v>
       </c>
@@ -10732,19 +13179,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
-      <c r="A92" s="59"/>
-      <c r="B92" s="58" t="s">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A92" s="57"/>
+      <c r="B92" s="56" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="50" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="51"/>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F92" s="57"/>
+      <c r="F92" s="55"/>
       <c r="G92" s="21">
         <v>3</v>
       </c>
@@ -10851,13 +13298,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
-      <c r="A93" s="59"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="57"/>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="55"/>
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
@@ -10896,17 +13343,17 @@
       <c r="AN93" s="21"/>
       <c r="AO93" s="21"/>
     </row>
-    <row r="94" spans="1:41">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A94" s="57"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="50" t="s">
         <v>115</v>
       </c>
       <c r="D94" s="51"/>
-      <c r="E94" s="56" t="s">
+      <c r="E94" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F94" s="57"/>
+      <c r="F94" s="55"/>
       <c r="G94" s="21">
         <v>4</v>
       </c>
@@ -11013,17 +13460,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A95" s="57"/>
+      <c r="B95" s="57"/>
       <c r="C95" s="50" t="s">
         <v>116</v>
       </c>
       <c r="D95" s="51"/>
-      <c r="E95" s="56" t="s">
+      <c r="E95" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F95" s="57"/>
+      <c r="F95" s="55"/>
       <c r="G95" s="21">
         <v>4</v>
       </c>
@@ -11130,17 +13577,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
-      <c r="A96" s="59"/>
-      <c r="B96" s="59"/>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="50" t="s">
         <v>117</v>
       </c>
       <c r="D96" s="51"/>
-      <c r="E96" s="56" t="s">
+      <c r="E96" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F96" s="57"/>
+      <c r="F96" s="55"/>
       <c r="G96" s="21">
         <v>4</v>
       </c>
@@ -11247,19 +13694,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="50" t="s">
         <v>118</v>
       </c>
       <c r="D97" s="51"/>
-      <c r="E97" s="56" t="s">
+      <c r="E97" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F97" s="57"/>
+      <c r="F97" s="55"/>
       <c r="G97" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H97" s="21">
         <v>4</v>
@@ -11340,7 +13787,7 @@
         <v>4</v>
       </c>
       <c r="AH97" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI97" s="22">
         <v>0</v>
@@ -11364,13 +13811,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="57"/>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="55"/>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
@@ -11399,7 +13846,7 @@
       <c r="AF98" s="21"/>
       <c r="AG98" s="21"/>
       <c r="AH98" s="21"/>
-      <c r="AI98" s="24">
+      <c r="AI98" s="23">
         <v>2</v>
       </c>
       <c r="AJ98" s="21"/>
@@ -11409,17 +13856,17 @@
       <c r="AN98" s="21"/>
       <c r="AO98" s="21"/>
     </row>
-    <row r="99" spans="1:41">
-      <c r="A99" s="59"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="54" t="s">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A99" s="57"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="55"/>
-      <c r="E99" s="56" t="s">
+      <c r="D99" s="60"/>
+      <c r="E99" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F99" s="57"/>
+      <c r="F99" s="55"/>
       <c r="G99" s="21">
         <v>4</v>
       </c>
@@ -11526,17 +13973,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="54" t="s">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A100" s="57"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="55"/>
-      <c r="E100" s="56" t="s">
+      <c r="D100" s="60"/>
+      <c r="E100" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F100" s="57"/>
+      <c r="F100" s="55"/>
       <c r="G100" s="21">
         <v>4</v>
       </c>
@@ -11643,17 +14090,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="54" t="s">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A101" s="57"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="55"/>
-      <c r="E101" s="56" t="s">
+      <c r="D101" s="60"/>
+      <c r="E101" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F101" s="57"/>
+      <c r="F101" s="55"/>
       <c r="G101" s="21">
         <v>4</v>
       </c>
@@ -11760,17 +14207,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="54" t="s">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="55"/>
-      <c r="E102" s="56" t="s">
+      <c r="D102" s="60"/>
+      <c r="E102" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F102" s="57"/>
+      <c r="F102" s="55"/>
       <c r="G102" s="21">
         <v>4</v>
       </c>
@@ -11877,17 +14324,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="54" t="s">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A103" s="57"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="55"/>
-      <c r="E103" s="56" t="s">
+      <c r="D103" s="60"/>
+      <c r="E103" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F103" s="57"/>
+      <c r="F103" s="55"/>
       <c r="G103" s="21">
         <v>4</v>
       </c>
@@ -11994,17 +14441,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
-      <c r="A104" s="59"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="54" t="s">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A104" s="57"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="55"/>
-      <c r="E104" s="56" t="s">
+      <c r="D104" s="60"/>
+      <c r="E104" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F104" s="57"/>
+      <c r="F104" s="55"/>
       <c r="G104" s="21">
         <v>4</v>
       </c>
@@ -12111,19 +14558,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
-      <c r="A105" s="59"/>
-      <c r="B105" s="58" t="s">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A105" s="57"/>
+      <c r="B105" s="56" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="50" t="s">
         <v>41</v>
       </c>
       <c r="D105" s="51"/>
-      <c r="E105" s="52" t="s">
+      <c r="E105" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F105" s="53"/>
+      <c r="F105" s="84"/>
       <c r="G105" s="21">
         <v>2</v>
       </c>
@@ -12230,17 +14677,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
-      <c r="A106" s="59"/>
-      <c r="B106" s="59"/>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A106" s="57"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D106" s="51"/>
-      <c r="E106" s="52" t="s">
+      <c r="E106" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F106" s="53"/>
+      <c r="F106" s="84"/>
       <c r="G106" s="21">
         <v>3</v>
       </c>
@@ -12347,13 +14794,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
-      <c r="A107" s="59"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="53"/>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="84"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
@@ -12392,17 +14839,17 @@
       <c r="AN107" s="21"/>
       <c r="AO107" s="21"/>
     </row>
-    <row r="108" spans="1:41">
-      <c r="A108" s="59"/>
-      <c r="B108" s="59"/>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A108" s="57"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D108" s="51"/>
-      <c r="E108" s="52" t="s">
+      <c r="E108" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F108" s="53"/>
+      <c r="F108" s="84"/>
       <c r="G108" s="21">
         <v>2</v>
       </c>
@@ -12509,17 +14956,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
-      <c r="A109" s="59"/>
-      <c r="B109" s="59"/>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A109" s="57"/>
+      <c r="B109" s="57"/>
       <c r="C109" s="50" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="51"/>
-      <c r="E109" s="52" t="s">
+      <c r="E109" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F109" s="53"/>
+      <c r="F109" s="84"/>
       <c r="G109" s="21">
         <v>2</v>
       </c>
@@ -12626,17 +15073,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
-      <c r="A110" s="59"/>
-      <c r="B110" s="59"/>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A110" s="57"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="50" t="s">
         <v>128</v>
       </c>
       <c r="D110" s="51"/>
-      <c r="E110" s="52" t="s">
+      <c r="E110" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F110" s="53"/>
+      <c r="F110" s="84"/>
       <c r="G110" s="21">
         <v>2</v>
       </c>
@@ -12743,17 +15190,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
-      <c r="A111" s="59"/>
-      <c r="B111" s="59"/>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A111" s="57"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="50" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="51"/>
-      <c r="E111" s="52" t="s">
+      <c r="E111" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F111" s="53"/>
+      <c r="F111" s="84"/>
       <c r="G111" s="21">
         <v>2</v>
       </c>
@@ -12860,17 +15307,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
-      <c r="A112" s="59"/>
-      <c r="B112" s="59"/>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A112" s="57"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="50" t="s">
         <v>130</v>
       </c>
       <c r="D112" s="51"/>
-      <c r="E112" s="52" t="s">
+      <c r="E112" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F112" s="53"/>
+      <c r="F112" s="84"/>
       <c r="G112" s="21">
         <v>2</v>
       </c>
@@ -12977,17 +15424,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
-      <c r="A113" s="59"/>
-      <c r="B113" s="59"/>
+    <row r="113" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A113" s="57"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="50" t="s">
         <v>131</v>
       </c>
       <c r="D113" s="51"/>
-      <c r="E113" s="52" t="s">
+      <c r="E113" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F113" s="53"/>
+      <c r="F113" s="84"/>
       <c r="G113" s="21">
         <v>2</v>
       </c>
@@ -13094,17 +15541,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
-      <c r="A114" s="59"/>
-      <c r="B114" s="59"/>
+    <row r="114" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A114" s="57"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="50" t="s">
         <v>132</v>
       </c>
       <c r="D114" s="51"/>
-      <c r="E114" s="52" t="s">
+      <c r="E114" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F114" s="53"/>
+      <c r="F114" s="84"/>
       <c r="G114" s="21">
         <v>2</v>
       </c>
@@ -13211,17 +15658,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
-      <c r="A115" s="59"/>
-      <c r="B115" s="59"/>
+    <row r="115" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A115" s="57"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="50" t="s">
         <v>133</v>
       </c>
       <c r="D115" s="51"/>
-      <c r="E115" s="52" t="s">
+      <c r="E115" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F115" s="53"/>
+      <c r="F115" s="84"/>
       <c r="G115" s="21">
         <v>2</v>
       </c>
@@ -13328,17 +15775,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
-      <c r="A116" s="59"/>
-      <c r="B116" s="60"/>
+    <row r="116" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A116" s="57"/>
+      <c r="B116" s="58"/>
       <c r="C116" s="50" t="s">
         <v>134</v>
       </c>
       <c r="D116" s="51"/>
-      <c r="E116" s="52" t="s">
+      <c r="E116" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F116" s="53"/>
+      <c r="F116" s="84"/>
       <c r="G116" s="21">
         <v>2</v>
       </c>
@@ -13445,19 +15892,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
-      <c r="A117" s="59"/>
-      <c r="B117" s="58" t="s">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A117" s="57"/>
+      <c r="B117" s="56" t="s">
         <v>52</v>
       </c>
       <c r="C117" s="50" t="s">
         <v>42</v>
       </c>
       <c r="D117" s="51"/>
-      <c r="E117" s="56" t="s">
+      <c r="E117" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F117" s="57"/>
+      <c r="F117" s="55"/>
       <c r="G117" s="21">
         <v>5</v>
       </c>
@@ -13564,17 +16011,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
-      <c r="A118" s="59"/>
-      <c r="B118" s="60"/>
+    <row r="118" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A118" s="57"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D118" s="51"/>
-      <c r="E118" s="56" t="s">
+      <c r="E118" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F118" s="57"/>
+      <c r="F118" s="55"/>
       <c r="G118" s="21">
         <v>5</v>
       </c>
@@ -13681,29 +16128,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
-      <c r="A119" s="59"/>
-      <c r="B119" s="64" t="s">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A119" s="57"/>
+      <c r="B119" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="65"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="61" t="s">
+      <c r="C119" s="76"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="62"/>
-      <c r="G119" s="56">
+      <c r="F119" s="82"/>
+      <c r="G119" s="54">
         <f>SUM(G17:G118)</f>
-        <v>308</v>
-      </c>
-      <c r="H119" s="57"/>
+        <v>289</v>
+      </c>
+      <c r="H119" s="55"/>
       <c r="I119" s="21">
         <f>SUM(I17:I118)</f>
         <v>330</v>
       </c>
       <c r="J119" s="21">
         <f>SUM(J17:J118)</f>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K119" s="21">
         <f>SUM(K17:K118)-K19-K36</f>
@@ -13711,15 +16158,15 @@
       </c>
       <c r="L119" s="21">
         <f>SUM(L17:L118)-L54</f>
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M119" s="21">
         <f>SUM(M17:M118)-M26-M39</f>
         <v>265</v>
       </c>
       <c r="N119" s="21">
-        <f>SUM(N17:N118)</f>
-        <v>249</v>
+        <f>SUM(N17:N118)-O42-O62</f>
+        <v>242</v>
       </c>
       <c r="O119" s="21">
         <f>SUM(O17:O118)-O42-O62</f>
@@ -13731,7 +16178,7 @@
       </c>
       <c r="Q119" s="21">
         <f>SUM(Q17:Q118)</f>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R119" s="21">
         <f>SUM(R17:R118)-R34</f>
@@ -13767,7 +16214,7 @@
       </c>
       <c r="Z119" s="21">
         <f>SUM(Z17:Z118)</f>
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AA119" s="21">
         <f>SUM(AA17:AA118)-AA66</f>
@@ -13779,11 +16226,11 @@
       </c>
       <c r="AC119" s="21">
         <f>SUM(AC17:AC118)-AC75</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD119" s="21">
         <f>SUM(AD17:AD118)</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE119" s="21">
         <f>SUM(AE17:AE118)</f>
@@ -13791,15 +16238,15 @@
       </c>
       <c r="AF119" s="21">
         <f>SUM(AF17:AF118)-AF78</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG119" s="21">
         <f>SUM(AG17:AG118)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH119" s="21">
         <f>SUM(AH17:AH118)</f>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AI119" s="21">
         <f>SUM(AI17:AI118)-AI98-AI93-AI80</f>
@@ -13830,20 +16277,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
-      <c r="A120" s="60"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="61" t="s">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A120" s="58"/>
+      <c r="B120" s="78"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="62"/>
-      <c r="G120" s="56">
+      <c r="F120" s="82"/>
+      <c r="G120" s="54">
         <f>SUM(H17:H118)</f>
         <v>330</v>
       </c>
-      <c r="H120" s="57"/>
+      <c r="H120" s="55"/>
       <c r="I120" s="21">
         <f>SUM(I17:I118)</f>
         <v>330</v>
@@ -13857,15 +16304,15 @@
         <v>298</v>
       </c>
       <c r="L120" s="21">
-        <f>SUM(L17:L118)-L54-M26+M39</f>
+        <f>SUM(L17:L118)-L54+M26+M39</f>
         <v>282</v>
       </c>
       <c r="M120" s="21">
-        <f>SUM(M17:M118)-M26-M39</f>
-        <v>265</v>
+        <f>SUM(M17:M118)+M26+M39</f>
+        <v>273</v>
       </c>
       <c r="N120" s="21">
-        <f>SUM(N17:N118)-O42-O62</f>
+        <f>SUM(N17:N118)+O42+O62</f>
         <v>246</v>
       </c>
       <c r="O120" s="21">
@@ -13913,7 +16360,7 @@
         <v>133</v>
       </c>
       <c r="Z120" s="21">
-        <f>SUM(Z17:Z118)-AA66</f>
+        <f>SUM(Z17:Z118)+AA66</f>
         <v>127</v>
       </c>
       <c r="AA120" s="21">
@@ -13926,11 +16373,11 @@
       </c>
       <c r="AC120" s="21">
         <f>SUM(AC17:AC118)-AC75</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD120" s="21">
         <f>SUM(AD17:AD118)</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE120" s="21">
         <f>SUM(AE17:AE118)+AF78</f>
@@ -13938,19 +16385,19 @@
       </c>
       <c r="AF120" s="21">
         <f>SUM(AF17:AF118)-AF78</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG120" s="21">
         <f>SUM(AG17:AG118)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH120" s="21">
-        <f>SUM(AH17:AH118)+AI80+AI93-AI98</f>
+        <f>SUM(AH17:AH118)+AI80+AI93+AI98</f>
         <v>86</v>
       </c>
       <c r="AI120" s="21">
-        <f>SUM(AI17:AI118)-AI98-AI93-AI80+AJ107</f>
-        <v>50</v>
+        <f>SUM(AI17:AI118)-AI98-AI93-AI80-AJ107</f>
+        <v>48</v>
       </c>
       <c r="AJ120" s="21">
         <f>SUM(AJ17:AJ118)-AJ107</f>
@@ -13979,6 +16426,208 @@
     </row>
   </sheetData>
   <mergeCells count="226">
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A17:A120"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B105:B116"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B81:B91"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B119:D120"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B51:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C42:D42"/>
@@ -14003,208 +16652,6 @@
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B119:D120"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="B51:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B105:B116"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B81:B91"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="A17:A120"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14216,11 +16663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V100" sqref="V100"/>
+    <sheetView topLeftCell="C71" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD98" sqref="AD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="2" width="21.109375" customWidth="1"/>
@@ -14234,12 +16681,12 @@
     <col min="21" max="28" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="70" t="s">
+    <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="1"/>
@@ -14248,21 +16695,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" thickBot="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="71"/>
+    <row r="2" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="1"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" thickBot="1">
-      <c r="A3" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="83"/>
+    <row r="3" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53"/>
       <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
@@ -14272,11 +16719,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="79"/>
+    <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="72"/>
       <c r="C4" s="4">
         <v>45773</v>
       </c>
@@ -14286,11 +16733,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="79"/>
+    <row r="5" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="72"/>
       <c r="C5" s="4">
         <v>45793</v>
       </c>
@@ -14300,7 +16747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
@@ -14308,16 +16755,16 @@
       <c r="E6" s="48"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" thickBot="1">
+    <row r="7" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" thickBot="1">
+    <row r="8" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -14332,7 +16779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" thickBot="1">
+    <row r="9" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -14349,7 +16796,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" thickBot="1">
+    <row r="10" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="8">
         <v>2</v>
@@ -14359,14 +16806,14 @@
       </c>
       <c r="D10" s="3">
         <f ca="1">SUMIF($E$17:$F$80,"Đạt",$G$17:$G$80)+SUMIF($E$17:$F$80,"All team",$G$17:$G$80)/5+SUMIF($E$17:$F$80,"Chương,Đạt",$G$17:$G$80)/2</f>
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">SUMIF($E$17:$F$80,"Đạt",$H$17:$H$80)+SUMIF($E$17:$F$80,"All team",$H$17:$H$80)/5+SUMIF($E$17:$F$80,"Chương,Đạt",$H$17:$H$80)/2</f>
         <v>31.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" thickBot="1">
+    <row r="11" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="8">
         <v>3</v>
@@ -14383,7 +16830,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" thickBot="1">
+    <row r="12" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="8">
         <v>4</v>
@@ -14393,14 +16840,14 @@
       </c>
       <c r="D12" s="3">
         <f ca="1">SUMIF($E$17:$F$80,"Chương",$G$17:$G$80)+SUMIF($E$17:$F$80,"All team",$G$17:$G$80)/5+SUMIF($E$17:$F$80,"Chương,Đạt",$G$17:$G$80)/2</f>
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">SUMIF($E$17:$F$80,"Chương",$H$17:$H$80)+SUMIF($E$17:$F$80,"All team",$H$17:$H$80)/5+SUMIF($E$17:$F$80,"Chương,Đạt",$H$17:$H$80)/2</f>
         <v>29.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" thickBot="1">
+    <row r="13" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="8">
         <v>5</v>
@@ -14417,12 +16864,12 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" thickBot="1">
+    <row r="14" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="80"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="5">
         <f ca="1">SUM(D9:D13)</f>
         <v>156</v>
@@ -14432,28 +16879,28 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.8">
+    <row r="15" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
     </row>
-    <row r="17" spans="1:57" ht="63.75" customHeight="1">
+    <row r="17" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="93" t="s">
+      <c r="D17" s="88"/>
+      <c r="E17" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="94"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="19" t="s">
         <v>10</v>
       </c>
@@ -14550,19 +16997,19 @@
       <c r="BD17" s="2"/>
       <c r="BE17" s="2"/>
     </row>
-    <row r="18" spans="1:57" ht="16.8">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="85" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="21">
         <v>7</v>
       </c>
@@ -14630,17 +17077,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="16.8">
-      <c r="A19" s="86"/>
-      <c r="B19" s="88" t="s">
+    <row r="19" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="90"/>
+      <c r="B19" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="85" t="s">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="21">
         <v>2</v>
       </c>
@@ -14708,13 +17155,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="16.8">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
+    <row r="20" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -14740,17 +17187,17 @@
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
     </row>
-    <row r="21" spans="1:57" ht="16.8">
-      <c r="A21" s="86"/>
-      <c r="B21" s="88" t="s">
+    <row r="21" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="90"/>
+      <c r="B21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="85" t="s">
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="21">
         <v>2</v>
       </c>
@@ -14818,13 +17265,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="16.8">
-      <c r="A22" s="86"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
+    <row r="22" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -14850,19 +17297,19 @@
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
     </row>
-    <row r="23" spans="1:57" ht="16.8" customHeight="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86" t="s">
+    <row r="23" spans="1:57" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="85" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="85"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="21">
         <v>2</v>
       </c>
@@ -14930,17 +17377,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="16.8">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="88" t="s">
+    <row r="24" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="85" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="85"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="21">
         <v>3</v>
       </c>
@@ -15008,17 +17455,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="16.8">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="88" t="s">
+    <row r="25" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="85" t="s">
+      <c r="D25" s="89"/>
+      <c r="E25" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="21">
         <v>2</v>
       </c>
@@ -15086,17 +17533,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="16.8">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="88" t="s">
+    <row r="26" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="85" t="s">
+      <c r="D26" s="89"/>
+      <c r="E26" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="85"/>
+      <c r="F26" s="86"/>
       <c r="G26" s="21">
         <v>2</v>
       </c>
@@ -15164,17 +17611,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="16.8">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="88" t="s">
+    <row r="27" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="85" t="s">
+      <c r="D27" s="89"/>
+      <c r="E27" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="85"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="21">
         <v>2</v>
       </c>
@@ -15242,17 +17689,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="16.8">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="88" t="s">
+    <row r="28" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="85" t="s">
+      <c r="D28" s="89"/>
+      <c r="E28" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="85"/>
+      <c r="F28" s="86"/>
       <c r="G28" s="21">
         <v>3</v>
       </c>
@@ -15320,17 +17767,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="16.8">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="88" t="s">
+    <row r="29" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="85" t="s">
+      <c r="D29" s="89"/>
+      <c r="E29" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="21">
         <v>3</v>
       </c>
@@ -15398,13 +17845,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="16.8">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
+    <row r="30" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -15430,19 +17877,19 @@
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
     </row>
-    <row r="31" spans="1:57" ht="16.8">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86" t="s">
+    <row r="31" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="90"/>
+      <c r="B31" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="85" t="s">
+      <c r="D31" s="89"/>
+      <c r="E31" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="85"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="21">
         <v>4</v>
       </c>
@@ -15510,17 +17957,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="16.8">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="88" t="s">
+    <row r="32" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="85" t="s">
+      <c r="D32" s="89"/>
+      <c r="E32" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="85"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="21">
         <v>6</v>
       </c>
@@ -15588,13 +18035,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="16.8">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
+    <row r="33" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -15620,17 +18067,17 @@
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
     </row>
-    <row r="34" spans="1:28" ht="16.8">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="88" t="s">
+    <row r="34" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="85" t="s">
+      <c r="D34" s="89"/>
+      <c r="E34" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="85"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="21">
         <v>4</v>
       </c>
@@ -15698,17 +18145,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="16.8">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="88" t="s">
+    <row r="35" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="85" t="s">
+      <c r="D35" s="89"/>
+      <c r="E35" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="85"/>
+      <c r="F35" s="86"/>
       <c r="G35" s="21">
         <v>4</v>
       </c>
@@ -15776,17 +18223,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="16.8">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="88" t="s">
+    <row r="36" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="85" t="s">
+      <c r="D36" s="89"/>
+      <c r="E36" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="85"/>
+      <c r="F36" s="86"/>
       <c r="G36" s="21">
         <v>2</v>
       </c>
@@ -15854,13 +18301,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="16.8">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
+    <row r="37" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -15886,17 +18333,17 @@
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
     </row>
-    <row r="38" spans="1:28" ht="16.8">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="88" t="s">
+    <row r="38" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="56" t="s">
+      <c r="D38" s="89"/>
+      <c r="E38" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="21">
         <v>4</v>
       </c>
@@ -15964,17 +18411,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="16.8">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="88" t="s">
+    <row r="39" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="85" t="s">
+      <c r="D39" s="89"/>
+      <c r="E39" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="85"/>
+      <c r="F39" s="86"/>
       <c r="G39" s="21">
         <v>3</v>
       </c>
@@ -16042,13 +18489,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="16.8">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
+    <row r="40" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -16074,19 +18521,19 @@
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
     </row>
-    <row r="41" spans="1:28" ht="16.8">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86" t="s">
+    <row r="41" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="90"/>
+      <c r="B41" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="85" t="s">
+      <c r="D41" s="89"/>
+      <c r="E41" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="85"/>
+      <c r="F41" s="86"/>
       <c r="G41" s="21">
         <v>3</v>
       </c>
@@ -16154,13 +18601,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="16.8">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
+    <row r="42" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="90"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -16186,17 +18633,17 @@
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
     </row>
-    <row r="43" spans="1:28" ht="16.8">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="88" t="s">
+    <row r="43" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="90"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="85" t="s">
+      <c r="D43" s="89"/>
+      <c r="E43" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="85"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="21">
         <v>6</v>
       </c>
@@ -16264,17 +18711,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="16.8">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="88" t="s">
+    <row r="44" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="85" t="s">
+      <c r="D44" s="89"/>
+      <c r="E44" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="85"/>
+      <c r="F44" s="86"/>
       <c r="G44" s="21">
         <v>4</v>
       </c>
@@ -16342,17 +18789,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="16.8">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="88" t="s">
+    <row r="45" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="88"/>
-      <c r="E45" s="85" t="s">
+      <c r="D45" s="89"/>
+      <c r="E45" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="85"/>
+      <c r="F45" s="86"/>
       <c r="G45" s="21">
         <v>4</v>
       </c>
@@ -16420,13 +18867,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="16.8">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
+    <row r="46" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="90"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -16452,17 +18899,17 @@
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
     </row>
-    <row r="47" spans="1:28" ht="16.8">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="88" t="s">
+    <row r="47" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="90"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="88"/>
-      <c r="E47" s="85" t="s">
+      <c r="D47" s="89"/>
+      <c r="E47" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="85"/>
+      <c r="F47" s="86"/>
       <c r="G47" s="21">
         <v>4</v>
       </c>
@@ -16530,17 +18977,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="16.8">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="88" t="s">
+    <row r="48" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="90"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="85" t="s">
+      <c r="D48" s="89"/>
+      <c r="E48" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="85"/>
+      <c r="F48" s="86"/>
       <c r="G48" s="21">
         <v>6</v>
       </c>
@@ -16608,17 +19055,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="16.8">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="88" t="s">
+    <row r="49" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="90"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="85" t="s">
+      <c r="D49" s="89"/>
+      <c r="E49" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="85"/>
+      <c r="F49" s="86"/>
       <c r="G49" s="21">
         <v>4</v>
       </c>
@@ -16686,17 +19133,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="16.8">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="88" t="s">
+    <row r="50" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="90"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="85" t="s">
+      <c r="D50" s="89"/>
+      <c r="E50" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="85"/>
+      <c r="F50" s="86"/>
       <c r="G50" s="21">
         <v>6</v>
       </c>
@@ -16764,17 +19211,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="16.8">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="88" t="s">
+    <row r="51" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="90"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="85" t="s">
+      <c r="D51" s="89"/>
+      <c r="E51" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="85"/>
+      <c r="F51" s="86"/>
       <c r="G51" s="21">
         <v>5</v>
       </c>
@@ -16842,13 +19289,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="16.8">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
+    <row r="52" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="90"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -16874,17 +19321,17 @@
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
     </row>
-    <row r="53" spans="1:28" ht="16.8">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="88" t="s">
+    <row r="53" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="90"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="88"/>
-      <c r="E53" s="85" t="s">
+      <c r="D53" s="89"/>
+      <c r="E53" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="85"/>
+      <c r="F53" s="86"/>
       <c r="G53" s="21">
         <v>6</v>
       </c>
@@ -16952,17 +19399,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="16.8">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="88" t="s">
+    <row r="54" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="90"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="85" t="s">
+      <c r="D54" s="89"/>
+      <c r="E54" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="85"/>
+      <c r="F54" s="86"/>
       <c r="G54" s="21">
         <v>3</v>
       </c>
@@ -17030,13 +19477,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="16.8">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="57"/>
+    <row r="55" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="90"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -17062,17 +19509,17 @@
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
     </row>
-    <row r="56" spans="1:28" ht="16.8">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="88" t="s">
+    <row r="56" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="90"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="85" t="s">
+      <c r="D56" s="89"/>
+      <c r="E56" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="85"/>
+      <c r="F56" s="86"/>
       <c r="G56" s="21">
         <v>6</v>
       </c>
@@ -17140,17 +19587,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="16.8">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="88" t="s">
+    <row r="57" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="90"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="88"/>
-      <c r="E57" s="85" t="s">
+      <c r="D57" s="89"/>
+      <c r="E57" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="85"/>
+      <c r="F57" s="86"/>
       <c r="G57" s="21">
         <v>10</v>
       </c>
@@ -17218,19 +19665,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="16.8">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86" t="s">
+    <row r="58" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="90"/>
+      <c r="B58" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="88" t="s">
+      <c r="C58" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="88"/>
-      <c r="E58" s="85" t="s">
+      <c r="D58" s="89"/>
+      <c r="E58" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="85"/>
+      <c r="F58" s="86"/>
       <c r="G58" s="21">
         <v>1</v>
       </c>
@@ -17298,17 +19745,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="16.8">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="88" t="s">
+    <row r="59" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="90"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="85" t="s">
+      <c r="D59" s="89"/>
+      <c r="E59" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="85"/>
+      <c r="F59" s="86"/>
       <c r="G59" s="21">
         <v>1</v>
       </c>
@@ -17376,17 +19823,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="16.8">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="54" t="s">
+    <row r="60" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="90"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="85" t="s">
+      <c r="D60" s="60"/>
+      <c r="E60" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="85"/>
+      <c r="F60" s="86"/>
       <c r="G60" s="21">
         <v>1</v>
       </c>
@@ -17454,17 +19901,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="16.8">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="88" t="s">
+    <row r="61" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="90"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="D61" s="88"/>
-      <c r="E61" s="85" t="s">
+      <c r="D61" s="89"/>
+      <c r="E61" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="F61" s="85"/>
+      <c r="F61" s="86"/>
       <c r="G61" s="21">
         <v>1</v>
       </c>
@@ -17532,17 +19979,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="16.8">
-      <c r="A62" s="86"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="88" t="s">
+    <row r="62" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="90"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="D62" s="88"/>
-      <c r="E62" s="85" t="s">
+      <c r="D62" s="89"/>
+      <c r="E62" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="85"/>
+      <c r="F62" s="86"/>
       <c r="G62" s="21">
         <v>1</v>
       </c>
@@ -17610,17 +20057,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="16.8">
-      <c r="A63" s="86"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="88" t="s">
+    <row r="63" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="90"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="88"/>
-      <c r="E63" s="85" t="s">
+      <c r="D63" s="89"/>
+      <c r="E63" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="85"/>
+      <c r="F63" s="86"/>
       <c r="G63" s="21">
         <v>1</v>
       </c>
@@ -17688,19 +20135,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="16.8">
-      <c r="A64" s="86"/>
-      <c r="B64" s="86" t="s">
+    <row r="64" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="90"/>
+      <c r="B64" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="88" t="s">
+      <c r="C64" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="88"/>
-      <c r="E64" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" s="85"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="86"/>
       <c r="G64" s="21">
         <v>2</v>
       </c>
@@ -17768,17 +20215,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="16.8">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="88" t="s">
+    <row r="65" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="90"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="88"/>
-      <c r="E65" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" s="85"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="86"/>
       <c r="G65" s="21">
         <v>2</v>
       </c>
@@ -17846,17 +20293,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="16.8">
-      <c r="A66" s="86"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="88" t="s">
+    <row r="66" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="90"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="88"/>
-      <c r="E66" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F66" s="85"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="86"/>
       <c r="G66" s="21">
         <v>2</v>
       </c>
@@ -17924,17 +20371,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="16.8">
-      <c r="A67" s="86"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="88" t="s">
+    <row r="67" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="90"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="88"/>
-      <c r="E67" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" s="85"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="86"/>
       <c r="G67" s="21">
         <v>2</v>
       </c>
@@ -18002,17 +20449,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="16.8">
-      <c r="A68" s="86"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="88" t="s">
+    <row r="68" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="88"/>
-      <c r="E68" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="85"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="86"/>
       <c r="G68" s="21">
         <v>2</v>
       </c>
@@ -18080,17 +20527,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="16.8">
-      <c r="A69" s="86"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="88" t="s">
+    <row r="69" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="90"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" s="85"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="86"/>
       <c r="G69" s="21">
         <v>1</v>
       </c>
@@ -18158,13 +20605,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="16.8">
-      <c r="A70" s="86"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
+    <row r="70" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="90"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
@@ -18190,171 +20637,171 @@
       <c r="AA70" s="21"/>
       <c r="AB70" s="21"/>
     </row>
-    <row r="71" spans="1:28" ht="16.8">
-      <c r="A71" s="86"/>
-      <c r="B71" s="86" t="s">
+    <row r="71" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="90"/>
+      <c r="B71" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="C71" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="89"/>
+      <c r="E71" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="85"/>
+      <c r="G71" s="21">
+        <v>1</v>
+      </c>
+      <c r="H71" s="21">
+        <v>1</v>
+      </c>
+      <c r="I71" s="21">
+        <v>1</v>
+      </c>
+      <c r="J71" s="21">
+        <v>1</v>
+      </c>
+      <c r="K71" s="21">
+        <v>1</v>
+      </c>
+      <c r="L71" s="21">
+        <v>1</v>
+      </c>
+      <c r="M71" s="21">
+        <v>1</v>
+      </c>
+      <c r="N71" s="21">
+        <v>1</v>
+      </c>
+      <c r="O71" s="21">
+        <v>1</v>
+      </c>
+      <c r="P71" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="21">
+        <v>1</v>
+      </c>
+      <c r="R71" s="21">
+        <v>1</v>
+      </c>
+      <c r="S71" s="21">
+        <v>1</v>
+      </c>
+      <c r="T71" s="21">
+        <v>1</v>
+      </c>
+      <c r="U71" s="21">
+        <v>1</v>
+      </c>
+      <c r="V71" s="21">
+        <v>1</v>
+      </c>
+      <c r="W71" s="21">
+        <v>1</v>
+      </c>
+      <c r="X71" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="90"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="88"/>
-      <c r="E71" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F71" s="90"/>
-      <c r="G71" s="21">
-        <v>1</v>
-      </c>
-      <c r="H71" s="21">
-        <v>1</v>
-      </c>
-      <c r="I71" s="21">
-        <v>1</v>
-      </c>
-      <c r="J71" s="21">
-        <v>1</v>
-      </c>
-      <c r="K71" s="21">
-        <v>1</v>
-      </c>
-      <c r="L71" s="21">
-        <v>1</v>
-      </c>
-      <c r="M71" s="21">
-        <v>1</v>
-      </c>
-      <c r="N71" s="21">
-        <v>1</v>
-      </c>
-      <c r="O71" s="21">
-        <v>1</v>
-      </c>
-      <c r="P71" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="21">
-        <v>1</v>
-      </c>
-      <c r="R71" s="21">
-        <v>1</v>
-      </c>
-      <c r="S71" s="21">
-        <v>1</v>
-      </c>
-      <c r="T71" s="21">
-        <v>1</v>
-      </c>
-      <c r="U71" s="21">
-        <v>1</v>
-      </c>
-      <c r="V71" s="21">
-        <v>1</v>
-      </c>
-      <c r="W71" s="21">
-        <v>1</v>
-      </c>
-      <c r="X71" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="21">
+      <c r="D72" s="89"/>
+      <c r="E72" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="85"/>
+      <c r="G72" s="21">
+        <v>2</v>
+      </c>
+      <c r="H72" s="21">
+        <v>1</v>
+      </c>
+      <c r="I72" s="21">
+        <v>1</v>
+      </c>
+      <c r="J72" s="21">
+        <v>1</v>
+      </c>
+      <c r="K72" s="21">
+        <v>1</v>
+      </c>
+      <c r="L72" s="21">
+        <v>1</v>
+      </c>
+      <c r="M72" s="21">
+        <v>1</v>
+      </c>
+      <c r="N72" s="21">
+        <v>1</v>
+      </c>
+      <c r="O72" s="21">
+        <v>1</v>
+      </c>
+      <c r="P72" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="21">
+        <v>1</v>
+      </c>
+      <c r="R72" s="21">
+        <v>1</v>
+      </c>
+      <c r="S72" s="21">
+        <v>1</v>
+      </c>
+      <c r="T72" s="21">
+        <v>1</v>
+      </c>
+      <c r="U72" s="21">
+        <v>1</v>
+      </c>
+      <c r="V72" s="21">
+        <v>1</v>
+      </c>
+      <c r="W72" s="21">
+        <v>1</v>
+      </c>
+      <c r="X72" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="21">
+        <v>2</v>
+      </c>
+      <c r="Z72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="16.8">
-      <c r="A72" s="86"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D72" s="88"/>
-      <c r="E72" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F72" s="90"/>
-      <c r="G72" s="21">
-        <v>2</v>
-      </c>
-      <c r="H72" s="21">
-        <v>1</v>
-      </c>
-      <c r="I72" s="21">
-        <v>1</v>
-      </c>
-      <c r="J72" s="21">
-        <v>1</v>
-      </c>
-      <c r="K72" s="21">
-        <v>1</v>
-      </c>
-      <c r="L72" s="21">
-        <v>1</v>
-      </c>
-      <c r="M72" s="21">
-        <v>1</v>
-      </c>
-      <c r="N72" s="21">
-        <v>1</v>
-      </c>
-      <c r="O72" s="21">
-        <v>1</v>
-      </c>
-      <c r="P72" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="21">
-        <v>1</v>
-      </c>
-      <c r="R72" s="21">
-        <v>1</v>
-      </c>
-      <c r="S72" s="21">
-        <v>1</v>
-      </c>
-      <c r="T72" s="21">
-        <v>1</v>
-      </c>
-      <c r="U72" s="21">
-        <v>1</v>
-      </c>
-      <c r="V72" s="21">
-        <v>1</v>
-      </c>
-      <c r="W72" s="21">
-        <v>1</v>
-      </c>
-      <c r="X72" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y72" s="21">
-        <v>2</v>
-      </c>
-      <c r="Z72" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" ht="16.8">
-      <c r="A73" s="86"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
+    <row r="73" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="90"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
@@ -18380,169 +20827,169 @@
       <c r="AA73" s="21"/>
       <c r="AB73" s="9"/>
     </row>
-    <row r="74" spans="1:28" ht="16.8">
-      <c r="A74" s="86"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="88" t="s">
+    <row r="74" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="90"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="89"/>
+      <c r="E74" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="85"/>
+      <c r="G74" s="21">
+        <v>1</v>
+      </c>
+      <c r="H74" s="21">
+        <v>1</v>
+      </c>
+      <c r="I74" s="21">
+        <v>1</v>
+      </c>
+      <c r="J74" s="21">
+        <v>1</v>
+      </c>
+      <c r="K74" s="21">
+        <v>1</v>
+      </c>
+      <c r="L74" s="21">
+        <v>1</v>
+      </c>
+      <c r="M74" s="21">
+        <v>1</v>
+      </c>
+      <c r="N74" s="21">
+        <v>1</v>
+      </c>
+      <c r="O74" s="21">
+        <v>1</v>
+      </c>
+      <c r="P74" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="21">
+        <v>1</v>
+      </c>
+      <c r="R74" s="21">
+        <v>1</v>
+      </c>
+      <c r="S74" s="21">
+        <v>1</v>
+      </c>
+      <c r="T74" s="21">
+        <v>1</v>
+      </c>
+      <c r="U74" s="21">
+        <v>1</v>
+      </c>
+      <c r="V74" s="21">
+        <v>1</v>
+      </c>
+      <c r="W74" s="21">
+        <v>1</v>
+      </c>
+      <c r="X74" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="90"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="D74" s="88"/>
-      <c r="E74" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F74" s="90"/>
-      <c r="G74" s="21">
-        <v>1</v>
-      </c>
-      <c r="H74" s="21">
-        <v>1</v>
-      </c>
-      <c r="I74" s="21">
-        <v>1</v>
-      </c>
-      <c r="J74" s="21">
-        <v>1</v>
-      </c>
-      <c r="K74" s="21">
-        <v>1</v>
-      </c>
-      <c r="L74" s="21">
-        <v>1</v>
-      </c>
-      <c r="M74" s="21">
-        <v>1</v>
-      </c>
-      <c r="N74" s="21">
-        <v>1</v>
-      </c>
-      <c r="O74" s="21">
-        <v>1</v>
-      </c>
-      <c r="P74" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="21">
-        <v>1</v>
-      </c>
-      <c r="R74" s="21">
-        <v>1</v>
-      </c>
-      <c r="S74" s="21">
-        <v>1</v>
-      </c>
-      <c r="T74" s="21">
-        <v>1</v>
-      </c>
-      <c r="U74" s="21">
-        <v>1</v>
-      </c>
-      <c r="V74" s="21">
-        <v>1</v>
-      </c>
-      <c r="W74" s="21">
-        <v>1</v>
-      </c>
-      <c r="X74" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z74" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="21">
+      <c r="D75" s="89"/>
+      <c r="E75" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="85"/>
+      <c r="G75" s="21">
+        <v>2</v>
+      </c>
+      <c r="H75" s="21">
+        <v>1</v>
+      </c>
+      <c r="I75" s="21">
+        <v>1</v>
+      </c>
+      <c r="J75" s="21">
+        <v>1</v>
+      </c>
+      <c r="K75" s="21">
+        <v>1</v>
+      </c>
+      <c r="L75" s="21">
+        <v>1</v>
+      </c>
+      <c r="M75" s="21">
+        <v>1</v>
+      </c>
+      <c r="N75" s="21">
+        <v>1</v>
+      </c>
+      <c r="O75" s="21">
+        <v>1</v>
+      </c>
+      <c r="P75" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="21">
+        <v>1</v>
+      </c>
+      <c r="R75" s="21">
+        <v>1</v>
+      </c>
+      <c r="S75" s="21">
+        <v>1</v>
+      </c>
+      <c r="T75" s="21">
+        <v>1</v>
+      </c>
+      <c r="U75" s="21">
+        <v>1</v>
+      </c>
+      <c r="V75" s="21">
+        <v>1</v>
+      </c>
+      <c r="W75" s="21">
+        <v>1</v>
+      </c>
+      <c r="X75" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="21">
+        <v>2</v>
+      </c>
+      <c r="Z75" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="16.8">
-      <c r="A75" s="86"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="D75" s="88"/>
-      <c r="E75" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F75" s="90"/>
-      <c r="G75" s="21">
-        <v>2</v>
-      </c>
-      <c r="H75" s="21">
-        <v>1</v>
-      </c>
-      <c r="I75" s="21">
-        <v>1</v>
-      </c>
-      <c r="J75" s="21">
-        <v>1</v>
-      </c>
-      <c r="K75" s="21">
-        <v>1</v>
-      </c>
-      <c r="L75" s="21">
-        <v>1</v>
-      </c>
-      <c r="M75" s="21">
-        <v>1</v>
-      </c>
-      <c r="N75" s="21">
-        <v>1</v>
-      </c>
-      <c r="O75" s="21">
-        <v>1</v>
-      </c>
-      <c r="P75" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="21">
-        <v>1</v>
-      </c>
-      <c r="R75" s="21">
-        <v>1</v>
-      </c>
-      <c r="S75" s="21">
-        <v>1</v>
-      </c>
-      <c r="T75" s="21">
-        <v>1</v>
-      </c>
-      <c r="U75" s="21">
-        <v>1</v>
-      </c>
-      <c r="V75" s="21">
-        <v>1</v>
-      </c>
-      <c r="W75" s="21">
-        <v>1</v>
-      </c>
-      <c r="X75" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="21">
-        <v>2</v>
-      </c>
-      <c r="Z75" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" ht="16.8">
-      <c r="A76" s="86"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
+    <row r="76" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="90"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
@@ -18568,175 +21015,175 @@
       <c r="AA76" s="21"/>
       <c r="AB76" s="21"/>
     </row>
-    <row r="77" spans="1:28" ht="16.8">
-      <c r="A77" s="86"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="88" t="s">
+    <row r="77" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="90"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="89"/>
+      <c r="E77" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="85"/>
+      <c r="G77" s="21">
+        <v>1</v>
+      </c>
+      <c r="H77" s="21">
+        <v>1</v>
+      </c>
+      <c r="I77" s="21">
+        <v>1</v>
+      </c>
+      <c r="J77" s="21">
+        <v>1</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1</v>
+      </c>
+      <c r="L77" s="21">
+        <v>1</v>
+      </c>
+      <c r="M77" s="21">
+        <v>1</v>
+      </c>
+      <c r="N77" s="21">
+        <v>1</v>
+      </c>
+      <c r="O77" s="21">
+        <v>1</v>
+      </c>
+      <c r="P77" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>1</v>
+      </c>
+      <c r="R77" s="21">
+        <v>1</v>
+      </c>
+      <c r="S77" s="21">
+        <v>1</v>
+      </c>
+      <c r="T77" s="21">
+        <v>1</v>
+      </c>
+      <c r="U77" s="21">
+        <v>1</v>
+      </c>
+      <c r="V77" s="21">
+        <v>1</v>
+      </c>
+      <c r="W77" s="21">
+        <v>1</v>
+      </c>
+      <c r="X77" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="90"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="88"/>
-      <c r="E77" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F77" s="90"/>
-      <c r="G77" s="21">
-        <v>1</v>
-      </c>
-      <c r="H77" s="21">
-        <v>1</v>
-      </c>
-      <c r="I77" s="21">
-        <v>1</v>
-      </c>
-      <c r="J77" s="21">
-        <v>1</v>
-      </c>
-      <c r="K77" s="21">
-        <v>1</v>
-      </c>
-      <c r="L77" s="21">
-        <v>1</v>
-      </c>
-      <c r="M77" s="21">
-        <v>1</v>
-      </c>
-      <c r="N77" s="21">
-        <v>1</v>
-      </c>
-      <c r="O77" s="21">
-        <v>1</v>
-      </c>
-      <c r="P77" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="21">
-        <v>1</v>
-      </c>
-      <c r="R77" s="21">
-        <v>1</v>
-      </c>
-      <c r="S77" s="21">
-        <v>1</v>
-      </c>
-      <c r="T77" s="21">
-        <v>1</v>
-      </c>
-      <c r="U77" s="21">
-        <v>1</v>
-      </c>
-      <c r="V77" s="21">
-        <v>1</v>
-      </c>
-      <c r="W77" s="21">
-        <v>1</v>
-      </c>
-      <c r="X77" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y77" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z77" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB77" s="21">
+      <c r="D78" s="60"/>
+      <c r="E78" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="85"/>
+      <c r="G78" s="21">
+        <v>1</v>
+      </c>
+      <c r="H78" s="21">
+        <v>1</v>
+      </c>
+      <c r="I78" s="21">
+        <v>1</v>
+      </c>
+      <c r="J78" s="21">
+        <v>1</v>
+      </c>
+      <c r="K78" s="21">
+        <v>1</v>
+      </c>
+      <c r="L78" s="21">
+        <v>1</v>
+      </c>
+      <c r="M78" s="21">
+        <v>1</v>
+      </c>
+      <c r="N78" s="21">
+        <v>1</v>
+      </c>
+      <c r="O78" s="21">
+        <v>1</v>
+      </c>
+      <c r="P78" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>1</v>
+      </c>
+      <c r="R78" s="21">
+        <v>1</v>
+      </c>
+      <c r="S78" s="21">
+        <v>1</v>
+      </c>
+      <c r="T78" s="21">
+        <v>1</v>
+      </c>
+      <c r="U78" s="21">
+        <v>1</v>
+      </c>
+      <c r="V78" s="21">
+        <v>1</v>
+      </c>
+      <c r="W78" s="21">
+        <v>1</v>
+      </c>
+      <c r="X78" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="16.8">
-      <c r="A78" s="86"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="55"/>
-      <c r="E78" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F78" s="90"/>
-      <c r="G78" s="21">
-        <v>1</v>
-      </c>
-      <c r="H78" s="21">
-        <v>1</v>
-      </c>
-      <c r="I78" s="21">
-        <v>1</v>
-      </c>
-      <c r="J78" s="21">
-        <v>1</v>
-      </c>
-      <c r="K78" s="21">
-        <v>1</v>
-      </c>
-      <c r="L78" s="21">
-        <v>1</v>
-      </c>
-      <c r="M78" s="21">
-        <v>1</v>
-      </c>
-      <c r="N78" s="21">
-        <v>1</v>
-      </c>
-      <c r="O78" s="21">
-        <v>1</v>
-      </c>
-      <c r="P78" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="21">
-        <v>1</v>
-      </c>
-      <c r="R78" s="21">
-        <v>1</v>
-      </c>
-      <c r="S78" s="21">
-        <v>1</v>
-      </c>
-      <c r="T78" s="21">
-        <v>1</v>
-      </c>
-      <c r="U78" s="21">
-        <v>1</v>
-      </c>
-      <c r="V78" s="21">
-        <v>1</v>
-      </c>
-      <c r="W78" s="21">
-        <v>1</v>
-      </c>
-      <c r="X78" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y78" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z78" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" ht="16.8">
-      <c r="A79" s="86"/>
-      <c r="B79" s="86" t="s">
+    <row r="79" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="90"/>
+      <c r="B79" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="88"/>
-      <c r="E79" s="85" t="s">
+      <c r="D79" s="89"/>
+      <c r="E79" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="85"/>
+      <c r="F79" s="86"/>
       <c r="G79" s="21">
         <v>5</v>
       </c>
@@ -18804,17 +21251,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="16.8">
-      <c r="A80" s="86"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="88" t="s">
+    <row r="80" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="90"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="88"/>
-      <c r="E80" s="85" t="s">
+      <c r="D80" s="89"/>
+      <c r="E80" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="85"/>
+      <c r="F80" s="86"/>
       <c r="G80" s="21">
         <v>5</v>
       </c>
@@ -18882,22 +21329,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="16.8">
-      <c r="A81" s="86"/>
+    <row r="81" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="90"/>
       <c r="B81" s="92" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="92"/>
       <c r="D81" s="92"/>
-      <c r="E81" s="89" t="s">
+      <c r="E81" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="89"/>
-      <c r="G81" s="85">
+      <c r="F81" s="93"/>
+      <c r="G81" s="86">
         <f>SUM(G18:G80)</f>
         <v>157</v>
       </c>
-      <c r="H81" s="85"/>
+      <c r="H81" s="86"/>
       <c r="I81" s="21">
         <f>SUM(I18:I80)</f>
         <v>169</v>
@@ -18979,20 +21426,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="16.8">
-      <c r="A82" s="86"/>
+    <row r="82" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="90"/>
       <c r="B82" s="92"/>
       <c r="C82" s="92"/>
       <c r="D82" s="92"/>
-      <c r="E82" s="89" t="s">
+      <c r="E82" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="89"/>
-      <c r="G82" s="85">
+      <c r="F82" s="93"/>
+      <c r="G82" s="86">
         <f>SUM(H18:H80)</f>
         <v>169</v>
       </c>
-      <c r="H82" s="85"/>
+      <c r="H82" s="86"/>
       <c r="I82" s="21">
         <f>SUM(I18:I80)</f>
         <v>169</v>
@@ -19074,38 +21521,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="91"/>
       <c r="D103" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A18:A82"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E56:F56"/>
@@ -19130,105 +21650,32 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A18:A82"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -19241,15 +21688,15 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" activeCellId="1" sqref="B2:K2 B6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.8">
+    <row r="1" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="97" t="s">
         <v>57</v>
       </c>
@@ -19264,14 +21711,14 @@
       <c r="J1" s="98"/>
       <c r="K1" s="99"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8">
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="100"/>
       <c r="B2" s="101" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="101"/>
       <c r="D2" s="101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101" t="s">
@@ -19287,7 +21734,7 @@
       </c>
       <c r="K2" s="102"/>
     </row>
-    <row r="3" spans="1:11" ht="16.8">
+    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="100"/>
       <c r="B3" s="34" t="s">
         <v>10</v>
@@ -19320,13 +21767,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.8">
+    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="26">
         <f ca="1">'Sprint 1'!$D$9</f>
-        <v>113</v>
+        <v>102.6</v>
       </c>
       <c r="C4" s="26">
         <f ca="1">'Sprint 1'!$E$9</f>
@@ -19334,7 +21781,7 @@
       </c>
       <c r="D4" s="26">
         <f ca="1">'Sprint 1'!$D$10</f>
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="E4" s="26">
         <f ca="1">'Sprint 1'!$E$10</f>
@@ -19342,7 +21789,7 @@
       </c>
       <c r="F4" s="26">
         <f ca="1">'Sprint 1'!$D$11</f>
-        <v>62</v>
+        <v>57.6</v>
       </c>
       <c r="G4" s="26">
         <f ca="1">'Sprint 1'!$E$11</f>
@@ -19350,7 +21797,7 @@
       </c>
       <c r="H4" s="26">
         <f ca="1">'Sprint 1'!$D$12</f>
-        <v>64</v>
+        <v>60.6</v>
       </c>
       <c r="I4" s="26">
         <f ca="1">'Sprint 1'!$E$12</f>
@@ -19358,14 +21805,14 @@
       </c>
       <c r="J4" s="26">
         <f ca="1">'Sprint 1'!$D$13</f>
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="K4" s="26">
         <f ca="1">'Sprint 1'!$E$13</f>
         <v>31.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.8">
+    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
@@ -19379,7 +21826,7 @@
       </c>
       <c r="D5" s="26">
         <f ca="1">'Sprint 2'!$D$10</f>
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="E5" s="26">
         <f ca="1">'Sprint 2'!$E$10</f>
@@ -19395,7 +21842,7 @@
       </c>
       <c r="H5" s="26">
         <f ca="1">'Sprint 2'!$D$12</f>
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="I5" s="26">
         <f ca="1">'Sprint 2'!$E$12</f>
@@ -19410,59 +21857,59 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.399999999999999" thickBot="1">
+    <row r="6" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="27">
-        <f ca="1">SUM(B5:B14)</f>
+        <f t="shared" ref="B6:K6" ca="1" si="0">SUM(B5:B14)</f>
         <v>139.6</v>
       </c>
       <c r="C6" s="27">
-        <f ca="1">SUM(C5:C14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>150.4</v>
       </c>
       <c r="D6" s="27">
-        <f ca="1">SUM(D5:D14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>68.099999999999994</v>
       </c>
       <c r="E6" s="27">
-        <f ca="1">SUM(E5:E14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>75.400000000000006</v>
       </c>
       <c r="F6" s="27">
-        <f ca="1">SUM(F5:F14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>94.6</v>
       </c>
       <c r="G6" s="27">
-        <f ca="1">SUM(G5:G14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>96.4</v>
       </c>
       <c r="H6" s="27">
-        <f ca="1">SUM(H5:H14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>89.1</v>
       </c>
       <c r="I6" s="27">
-        <f ca="1">SUM(I5:I14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100.39999999999999</v>
       </c>
       <c r="J6" s="27">
-        <f ca="1">SUM(J5:J14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72.599999999999994</v>
       </c>
       <c r="K6" s="27">
-        <f ca="1">SUM(K5:K14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1"/>
-    <row r="9" spans="1:11" ht="16.8">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="E9" s="95" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="96"/>
     </row>
-    <row r="10" spans="1:11" ht="16.8">
+    <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="E10" s="30" t="s">
         <v>10</v>
       </c>
@@ -19471,7 +21918,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.399999999999999" thickBot="1">
+    <row r="11" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="32" t="s">
         <v>11</v>
       </c>

--- a/documents/10.ProjectSprintBacklog.xlsx
+++ b/documents/10.ProjectSprintBacklog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHOA LUAN TOT NGHIEP\Word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHOA LUAN TOT NGHIEP\V3\XDNTGDTT2112\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10332"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10332" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="182">
   <si>
     <t>Project name:</t>
   </si>
@@ -582,6 +582,9 @@
   </si>
   <si>
     <t xml:space="preserve">Đạt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -1211,12 +1214,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,13 +1237,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1276,53 +1300,32 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1330,10 +1333,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,10 +1535,10 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>317</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>278</c:v>
@@ -1544,46 +1547,46 @@
                   <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>242</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>233</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>222</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>201</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>180</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>171</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>162</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>151</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>144</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>136</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>125</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>107</c:v>
@@ -1764,58 +1767,58 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>322</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>298</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>233</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>222</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>180</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>171</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>164</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>151</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>144</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>139</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>110</c:v>
@@ -1986,26 +1989,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2029,6 +2012,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2044,6 +2032,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2059,6 +2052,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2074,6 +2072,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2089,6 +2092,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2148,10 +2156,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:layout/>
               </c:ext>
@@ -2227,6 +2231,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2242,6 +2251,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2257,6 +2271,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2272,6 +2291,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2287,6 +2311,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-6568-4EAD-A114-DD7EEDC09D80}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2574,10 +2603,10 @@
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>74</c:v>
@@ -2589,7 +2618,7 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>34</c:v>
@@ -2598,10 +2627,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
@@ -2728,10 +2757,10 @@
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>118</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>74</c:v>
@@ -2740,10 +2769,10 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>34</c:v>
@@ -2752,10 +2781,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
@@ -3391,6 +3420,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2AFB-4AC7-AC84-D0B5E77AD43F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3406,6 +3440,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2AFB-4AC7-AC84-D0B5E77AD43F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3421,6 +3460,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2AFB-4AC7-AC84-D0B5E77AD43F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3436,6 +3480,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-2AFB-4AC7-AC84-D0B5E77AD43F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3451,6 +3500,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-2AFB-4AC7-AC84-D0B5E77AD43F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3642,566 +3696,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5127,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C102" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC144" sqref="AC144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -5157,30 +4652,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="63" t="s">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="70" t="s">
         <v>178</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="71"/>
       <c r="E2" s="40"/>
       <c r="F2" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53"/>
+      <c r="A3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="83"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5190,10 +4685,10 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="72"/>
+      <c r="A4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="79"/>
       <c r="C4" s="4">
         <v>45741</v>
       </c>
@@ -5203,10 +4698,10 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="72"/>
+      <c r="A5" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="79"/>
       <c r="C5" s="4">
         <v>45772</v>
       </c>
@@ -5222,12 +4717,12 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -5324,10 +4819,10 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="5">
         <f ca="1">SUM(D9:D13)</f>
         <v>289</v>
@@ -5344,14 +4839,14 @@
       <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="69" t="s">
+      <c r="D16" s="77"/>
+      <c r="E16" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="19" t="s">
         <v>10</v>
       </c>
@@ -5459,18 +4954,18 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="58" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="21">
         <v>7</v>
       </c>
@@ -5578,16 +5073,16 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="51"/>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="55"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="21">
         <v>1</v>
       </c>
@@ -5598,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="22">
         <v>0</v>
@@ -5695,18 +5190,18 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -5740,16 +5235,16 @@
       <c r="AO19" s="21"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="51"/>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="55"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="21">
         <v>4</v>
       </c>
@@ -5857,18 +5352,18 @@
       </c>
     </row>
     <row r="21" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="50" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="51"/>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="21">
         <v>4</v>
       </c>
@@ -5976,16 +5471,16 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="51"/>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="21">
         <v>4</v>
       </c>
@@ -6093,16 +5588,16 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="51"/>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="55"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="21">
         <v>4</v>
       </c>
@@ -6210,16 +5705,16 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="50" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="55"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="21">
         <v>4</v>
       </c>
@@ -6327,16 +5822,16 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="51"/>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="21">
         <v>1</v>
       </c>
@@ -6353,7 +5848,7 @@
         <v>4</v>
       </c>
       <c r="L25" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M25" s="22">
         <v>0</v>
@@ -6444,12 +5939,12 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -6457,7 +5952,7 @@
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
@@ -6489,16 +5984,16 @@
       <c r="AO26" s="21"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="59" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="55"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="21">
         <v>4</v>
       </c>
@@ -6606,16 +6101,16 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="59" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="54" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="21">
         <v>4</v>
       </c>
@@ -6723,16 +6218,16 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="59" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="54" t="s">
+      <c r="D29" s="55"/>
+      <c r="E29" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="55"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="21">
         <v>4</v>
       </c>
@@ -6840,16 +6335,16 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="59" t="s">
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="54" t="s">
+      <c r="D30" s="55"/>
+      <c r="E30" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="55"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="21">
         <v>4</v>
       </c>
@@ -6957,16 +6452,16 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="59" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="21">
         <v>4</v>
       </c>
@@ -7024,16 +6519,16 @@
       <c r="AO31" s="21"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="59" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="54" t="s">
+      <c r="D32" s="55"/>
+      <c r="E32" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="55"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="21">
         <v>4</v>
       </c>
@@ -7141,16 +6636,16 @@
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="50" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="51"/>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="55"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="21">
         <v>2</v>
       </c>
@@ -7182,7 +6677,7 @@
         <v>10</v>
       </c>
       <c r="Q33" s="21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R33" s="22">
         <v>0</v>
@@ -7258,12 +6753,12 @@
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -7275,7 +6770,7 @@
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="23">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
@@ -7302,18 +6797,18 @@
       <c r="AO34" s="21"/>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="51"/>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="55"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="21">
         <v>2</v>
       </c>
@@ -7324,7 +6819,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K35" s="22">
         <v>0</v>
@@ -7421,18 +6916,18 @@
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
@@ -7465,16 +6960,16 @@
       <c r="AO36" s="21"/>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="51"/>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="21">
         <v>4</v>
       </c>
@@ -7582,16 +7077,16 @@
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="50" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="51"/>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="21">
         <v>3</v>
       </c>
@@ -7605,10 +7100,10 @@
         <v>4</v>
       </c>
       <c r="K38" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" s="22">
         <v>0</v>
@@ -7699,12 +7194,12 @@
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="55"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -7712,7 +7207,7 @@
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
@@ -7744,16 +7239,16 @@
       <c r="AO39" s="21"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="50" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="51"/>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="21">
         <v>4</v>
       </c>
@@ -7861,16 +7356,16 @@
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="50" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="51"/>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="55"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="21">
         <v>3</v>
       </c>
@@ -7893,7 +7388,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O41" s="22">
         <v>0</v>
@@ -7976,12 +7471,12 @@
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -7991,7 +7486,7 @@
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
       <c r="O42" s="23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
@@ -8021,16 +7516,16 @@
       <c r="AO42" s="21"/>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="59" t="s">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="55"/>
+      <c r="E43" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="21">
         <v>4</v>
       </c>
@@ -8138,16 +7633,16 @@
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="51"/>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="55"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="21">
         <v>4</v>
       </c>
@@ -8255,16 +7750,16 @@
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D45" s="51"/>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="55"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="21">
         <v>4</v>
       </c>
@@ -8372,16 +7867,16 @@
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="59" t="s">
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="54" t="s">
+      <c r="D46" s="55"/>
+      <c r="E46" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="55"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="21">
         <v>4</v>
       </c>
@@ -8489,16 +7984,16 @@
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="59" t="s">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="54" t="s">
+      <c r="D47" s="55"/>
+      <c r="E47" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="55"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="21">
         <v>4</v>
       </c>
@@ -8606,16 +8101,16 @@
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="59" t="s">
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="54" t="s">
+      <c r="D48" s="55"/>
+      <c r="E48" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="55"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="21">
         <v>4</v>
       </c>
@@ -8723,16 +8218,16 @@
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="51"/>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="55"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="21">
         <v>4</v>
       </c>
@@ -8755,28 +8250,28 @@
         <v>6</v>
       </c>
       <c r="N49" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O49" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P49" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q49" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R49" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S49" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T49" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U49" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V49" s="22">
         <v>0</v>
@@ -8840,12 +8335,12 @@
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -8861,7 +8356,7 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="W50" s="21"/>
       <c r="X50" s="21"/>
@@ -8884,18 +8379,18 @@
       <c r="AO50" s="21"/>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
-      <c r="B51" s="56" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="51"/>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="55"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="21">
         <v>4</v>
       </c>
@@ -9003,16 +8498,16 @@
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="50" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="51"/>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="55"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="21">
         <v>6</v>
       </c>
@@ -9120,16 +8615,16 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="50" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="51"/>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="55"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="21">
         <v>2</v>
       </c>
@@ -9140,10 +8635,10 @@
         <v>4</v>
       </c>
       <c r="J53" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L53" s="22">
         <v>0</v>
@@ -9237,19 +8732,19 @@
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
@@ -9282,16 +8777,16 @@
       <c r="AO54" s="21"/>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D55" s="51"/>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="55"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="21">
         <v>6</v>
       </c>
@@ -9399,16 +8894,16 @@
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="50" t="s">
         <v>84</v>
       </c>
       <c r="D56" s="51"/>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="55"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="21">
         <v>4</v>
       </c>
@@ -9516,16 +9011,16 @@
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="50" t="s">
         <v>85</v>
       </c>
       <c r="D57" s="51"/>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="55"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="21">
         <v>6</v>
       </c>
@@ -9633,16 +9128,16 @@
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="50" t="s">
         <v>86</v>
       </c>
       <c r="D58" s="51"/>
-      <c r="E58" s="54" t="s">
+      <c r="E58" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="55"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="21">
         <v>4</v>
       </c>
@@ -9750,16 +9245,16 @@
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="50" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="51"/>
-      <c r="E59" s="54" t="s">
+      <c r="E59" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="55"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="21">
         <v>3</v>
       </c>
@@ -9797,22 +9292,22 @@
         <v>6</v>
       </c>
       <c r="S59" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T59" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U59" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V59" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W59" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X59" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y59" s="22">
         <v>0</v>
@@ -9867,12 +9362,12 @@
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="55"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -9892,7 +9387,7 @@
       <c r="W60" s="21"/>
       <c r="X60" s="21"/>
       <c r="Y60" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
@@ -9912,16 +9407,16 @@
       <c r="AO60" s="21"/>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="50" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="51"/>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="55"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="21">
         <v>3</v>
       </c>
@@ -9944,7 +9439,7 @@
         <v>4</v>
       </c>
       <c r="N61" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O61" s="22">
         <v>0</v>
@@ -10029,12 +9524,12 @@
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="55"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
@@ -10044,7 +9539,7 @@
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
       <c r="O62" s="23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
@@ -10074,16 +9569,16 @@
       <c r="AO62" s="21"/>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="50" t="s">
         <v>89</v>
       </c>
       <c r="D63" s="51"/>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="55"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="21">
         <v>6</v>
       </c>
@@ -10191,16 +9686,16 @@
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="50" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="51"/>
-      <c r="E64" s="54" t="s">
+      <c r="E64" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="55"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="21">
         <v>2</v>
       </c>
@@ -10308,16 +9803,16 @@
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="50" t="s">
         <v>91</v>
       </c>
       <c r="D65" s="51"/>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F65" s="55"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="21">
         <v>4</v>
       </c>
@@ -10376,7 +9871,7 @@
         <v>6</v>
       </c>
       <c r="Z65" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA65" s="22">
         <v>0</v>
@@ -10425,12 +9920,12 @@
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="55"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
@@ -10452,7 +9947,7 @@
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
       <c r="AA66" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB66" s="21"/>
       <c r="AC66" s="21"/>
@@ -10470,16 +9965,16 @@
       <c r="AO66" s="21"/>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="50" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="51"/>
-      <c r="E67" s="54" t="s">
+      <c r="E67" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F67" s="55"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="21">
         <v>4</v>
       </c>
@@ -10587,16 +10082,16 @@
       </c>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="50" t="s">
         <v>93</v>
       </c>
       <c r="D68" s="51"/>
-      <c r="E68" s="54" t="s">
+      <c r="E68" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F68" s="55"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="21">
         <v>6</v>
       </c>
@@ -10704,16 +10199,16 @@
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="50" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="51"/>
-      <c r="E69" s="54" t="s">
+      <c r="E69" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F69" s="55"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="21">
         <v>4</v>
       </c>
@@ -10821,16 +10316,16 @@
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="50" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="51"/>
-      <c r="E70" s="54" t="s">
+      <c r="E70" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="55"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="21">
         <v>6</v>
       </c>
@@ -10938,16 +10433,16 @@
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A71" s="57"/>
-      <c r="B71" s="57"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="50" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="51"/>
-      <c r="E71" s="54" t="s">
+      <c r="E71" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="55"/>
+      <c r="F71" s="57"/>
       <c r="G71" s="21">
         <v>4</v>
       </c>
@@ -11055,16 +10550,16 @@
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="50" t="s">
         <v>97</v>
       </c>
       <c r="D72" s="51"/>
-      <c r="E72" s="54" t="s">
+      <c r="E72" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="55"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="21">
         <v>6</v>
       </c>
@@ -11172,16 +10667,16 @@
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="50" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="51"/>
-      <c r="E73" s="54" t="s">
+      <c r="E73" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F73" s="55"/>
+      <c r="F73" s="57"/>
       <c r="G73" s="21">
         <v>4</v>
       </c>
@@ -11289,16 +10784,16 @@
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="50" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="51"/>
-      <c r="E74" s="54" t="s">
+      <c r="E74" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="55"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="21">
         <v>3</v>
       </c>
@@ -11348,22 +10843,22 @@
         <v>6</v>
       </c>
       <c r="W74" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X74" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y74" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z74" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA74" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB74" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC74" s="22">
         <v>0</v>
@@ -11406,12 +10901,12 @@
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="55"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
@@ -11435,7 +10930,7 @@
       <c r="AA75" s="21"/>
       <c r="AB75" s="21"/>
       <c r="AC75" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AD75" s="21"/>
       <c r="AE75" s="21"/>
@@ -11451,16 +10946,16 @@
       <c r="AO75" s="21"/>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="50" t="s">
         <v>100</v>
       </c>
       <c r="D76" s="51"/>
-      <c r="E76" s="54" t="s">
+      <c r="E76" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="55"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="21">
         <v>4</v>
       </c>
@@ -11568,16 +11063,16 @@
       </c>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="50" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="51"/>
-      <c r="E77" s="54" t="s">
+      <c r="E77" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F77" s="55"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="21">
         <v>8</v>
       </c>
@@ -11651,7 +11146,7 @@
         <v>12</v>
       </c>
       <c r="AE77" s="21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF77" s="22">
         <v>0</v>
@@ -11685,12 +11180,12 @@
       </c>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="55"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
@@ -11717,7 +11212,7 @@
       <c r="AD78" s="21"/>
       <c r="AE78" s="21"/>
       <c r="AF78" s="23">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AG78" s="21"/>
       <c r="AH78" s="21"/>
@@ -11730,16 +11225,16 @@
       <c r="AO78" s="21"/>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D79" s="51"/>
-      <c r="E79" s="54" t="s">
+      <c r="E79" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F79" s="55"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="21">
         <v>6</v>
       </c>
@@ -11822,7 +11317,7 @@
         <v>10</v>
       </c>
       <c r="AH79" s="21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI79" s="22">
         <v>0</v>
@@ -11847,12 +11342,12 @@
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A80" s="57"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="55"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
@@ -11881,7 +11376,7 @@
       <c r="AG80" s="21"/>
       <c r="AH80" s="21"/>
       <c r="AI80" s="23">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AJ80" s="21"/>
       <c r="AK80" s="21"/>
@@ -11891,18 +11386,18 @@
       <c r="AO80" s="21"/>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A81" s="57"/>
-      <c r="B81" s="56" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="58" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="51"/>
-      <c r="E81" s="54" t="s">
+      <c r="E81" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F81" s="55"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="21">
         <v>1</v>
       </c>
@@ -12010,16 +11505,16 @@
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
-      <c r="B82" s="57"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="50" t="s">
         <v>105</v>
       </c>
       <c r="D82" s="51"/>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F82" s="55"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="21">
         <v>1</v>
       </c>
@@ -12127,16 +11622,16 @@
       </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A83" s="57"/>
-      <c r="B83" s="57"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="50" t="s">
         <v>106</v>
       </c>
       <c r="D83" s="51"/>
-      <c r="E83" s="54" t="s">
+      <c r="E83" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F83" s="55"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="21">
         <v>1</v>
       </c>
@@ -12244,16 +11739,16 @@
       </c>
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A84" s="57"/>
-      <c r="B84" s="57"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="50" t="s">
         <v>107</v>
       </c>
       <c r="D84" s="51"/>
-      <c r="E84" s="54" t="s">
+      <c r="E84" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="55"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="21">
         <v>1</v>
       </c>
@@ -12361,16 +11856,16 @@
       </c>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D85" s="51"/>
-      <c r="E85" s="54" t="s">
+      <c r="E85" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="55"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="21">
         <v>1</v>
       </c>
@@ -12478,16 +11973,16 @@
       </c>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="50" t="s">
         <v>109</v>
       </c>
       <c r="D86" s="51"/>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F86" s="55"/>
+      <c r="F86" s="57"/>
       <c r="G86" s="21">
         <v>1</v>
       </c>
@@ -12595,16 +12090,16 @@
       </c>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
       <c r="C87" s="50" t="s">
         <v>110</v>
       </c>
       <c r="D87" s="51"/>
-      <c r="E87" s="54" t="s">
+      <c r="E87" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F87" s="55"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="21">
         <v>1</v>
       </c>
@@ -12712,16 +12207,16 @@
       </c>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="50" t="s">
         <v>111</v>
       </c>
       <c r="D88" s="51"/>
-      <c r="E88" s="54" t="s">
+      <c r="E88" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F88" s="55"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="21">
         <v>1</v>
       </c>
@@ -12829,16 +12324,16 @@
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
       <c r="C89" s="50" t="s">
         <v>112</v>
       </c>
       <c r="D89" s="51"/>
-      <c r="E89" s="54" t="s">
+      <c r="E89" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F89" s="55"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="21">
         <v>1</v>
       </c>
@@ -12946,16 +12441,16 @@
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
       <c r="C90" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D90" s="51"/>
-      <c r="E90" s="54" t="s">
+      <c r="E90" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="55"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="21">
         <v>1</v>
       </c>
@@ -13063,16 +12558,16 @@
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D91" s="51"/>
-      <c r="E91" s="54" t="s">
+      <c r="E91" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F91" s="55"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="21">
         <v>1</v>
       </c>
@@ -13180,18 +12675,18 @@
       </c>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A92" s="57"/>
-      <c r="B92" s="56" t="s">
+      <c r="A92" s="59"/>
+      <c r="B92" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="50" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="51"/>
-      <c r="E92" s="54" t="s">
+      <c r="E92" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F92" s="55"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="21">
         <v>3</v>
       </c>
@@ -13274,7 +12769,7 @@
         <v>4</v>
       </c>
       <c r="AH92" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI92" s="22">
         <v>0</v>
@@ -13299,12 +12794,12 @@
       </c>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="55"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
@@ -13334,7 +12829,7 @@
       <c r="AG93" s="21"/>
       <c r="AH93" s="21"/>
       <c r="AI93" s="23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ93" s="21"/>
       <c r="AK93" s="21"/>
@@ -13344,16 +12839,16 @@
       <c r="AO93" s="21"/>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A94" s="57"/>
-      <c r="B94" s="57"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
       <c r="C94" s="50" t="s">
         <v>115</v>
       </c>
       <c r="D94" s="51"/>
-      <c r="E94" s="54" t="s">
+      <c r="E94" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F94" s="55"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="21">
         <v>4</v>
       </c>
@@ -13461,16 +12956,16 @@
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A95" s="57"/>
-      <c r="B95" s="57"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="50" t="s">
         <v>116</v>
       </c>
       <c r="D95" s="51"/>
-      <c r="E95" s="54" t="s">
+      <c r="E95" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F95" s="55"/>
+      <c r="F95" s="57"/>
       <c r="G95" s="21">
         <v>4</v>
       </c>
@@ -13578,16 +13073,16 @@
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A96" s="57"/>
-      <c r="B96" s="57"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="50" t="s">
         <v>117</v>
       </c>
       <c r="D96" s="51"/>
-      <c r="E96" s="54" t="s">
+      <c r="E96" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F96" s="55"/>
+      <c r="F96" s="57"/>
       <c r="G96" s="21">
         <v>4</v>
       </c>
@@ -13695,16 +13190,16 @@
       </c>
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A97" s="57"/>
-      <c r="B97" s="57"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="50" t="s">
         <v>118</v>
       </c>
       <c r="D97" s="51"/>
-      <c r="E97" s="54" t="s">
+      <c r="E97" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F97" s="55"/>
+      <c r="F97" s="57"/>
       <c r="G97" s="21">
         <v>2</v>
       </c>
@@ -13787,7 +13282,7 @@
         <v>4</v>
       </c>
       <c r="AH97" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI97" s="22">
         <v>0</v>
@@ -13812,12 +13307,12 @@
       </c>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="55"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
@@ -13847,7 +13342,7 @@
       <c r="AG98" s="21"/>
       <c r="AH98" s="21"/>
       <c r="AI98" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ98" s="21"/>
       <c r="AK98" s="21"/>
@@ -13857,16 +13352,16 @@
       <c r="AO98" s="21"/>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="59" t="s">
+      <c r="A99" s="59"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="54" t="s">
+      <c r="D99" s="55"/>
+      <c r="E99" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F99" s="55"/>
+      <c r="F99" s="57"/>
       <c r="G99" s="21">
         <v>4</v>
       </c>
@@ -13974,16 +13469,16 @@
       </c>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="59" t="s">
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="54" t="s">
+      <c r="D100" s="55"/>
+      <c r="E100" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F100" s="55"/>
+      <c r="F100" s="57"/>
       <c r="G100" s="21">
         <v>4</v>
       </c>
@@ -14091,16 +13586,16 @@
       </c>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="59" t="s">
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="54" t="s">
+      <c r="D101" s="55"/>
+      <c r="E101" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F101" s="55"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="21">
         <v>4</v>
       </c>
@@ -14208,16 +13703,16 @@
       </c>
     </row>
     <row r="102" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="59" t="s">
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="60"/>
-      <c r="E102" s="54" t="s">
+      <c r="D102" s="55"/>
+      <c r="E102" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F102" s="55"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="21">
         <v>4</v>
       </c>
@@ -14325,16 +13820,16 @@
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="59" t="s">
+      <c r="A103" s="59"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="54" t="s">
+      <c r="D103" s="55"/>
+      <c r="E103" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F103" s="55"/>
+      <c r="F103" s="57"/>
       <c r="G103" s="21">
         <v>4</v>
       </c>
@@ -14442,16 +13937,16 @@
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A104" s="57"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="59" t="s">
+      <c r="A104" s="59"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="60"/>
-      <c r="E104" s="54" t="s">
+      <c r="D104" s="55"/>
+      <c r="E104" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F104" s="55"/>
+      <c r="F104" s="57"/>
       <c r="G104" s="21">
         <v>4</v>
       </c>
@@ -14559,18 +14054,18 @@
       </c>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A105" s="57"/>
-      <c r="B105" s="56" t="s">
+      <c r="A105" s="59"/>
+      <c r="B105" s="58" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="50" t="s">
         <v>41</v>
       </c>
       <c r="D105" s="51"/>
-      <c r="E105" s="83" t="s">
+      <c r="E105" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F105" s="84"/>
+      <c r="F105" s="53"/>
       <c r="G105" s="21">
         <v>2</v>
       </c>
@@ -14678,16 +14173,16 @@
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A106" s="57"/>
-      <c r="B106" s="57"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="59"/>
       <c r="C106" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D106" s="51"/>
-      <c r="E106" s="83" t="s">
+      <c r="E106" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F106" s="84"/>
+      <c r="F106" s="53"/>
       <c r="G106" s="21">
         <v>3</v>
       </c>
@@ -14773,7 +14268,7 @@
         <v>2</v>
       </c>
       <c r="AI106" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ106" s="22">
         <v>0</v>
@@ -14795,12 +14290,12 @@
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A107" s="57"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="84"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="53"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
@@ -14840,16 +14335,16 @@
       <c r="AO107" s="21"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A108" s="57"/>
-      <c r="B108" s="57"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="59"/>
       <c r="C108" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D108" s="51"/>
-      <c r="E108" s="83" t="s">
+      <c r="E108" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F108" s="84"/>
+      <c r="F108" s="53"/>
       <c r="G108" s="21">
         <v>2</v>
       </c>
@@ -14957,16 +14452,16 @@
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A109" s="57"/>
-      <c r="B109" s="57"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="59"/>
       <c r="C109" s="50" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="51"/>
-      <c r="E109" s="83" t="s">
+      <c r="E109" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F109" s="84"/>
+      <c r="F109" s="53"/>
       <c r="G109" s="21">
         <v>2</v>
       </c>
@@ -15074,16 +14569,16 @@
       </c>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="59"/>
       <c r="C110" s="50" t="s">
         <v>128</v>
       </c>
       <c r="D110" s="51"/>
-      <c r="E110" s="83" t="s">
+      <c r="E110" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F110" s="84"/>
+      <c r="F110" s="53"/>
       <c r="G110" s="21">
         <v>2</v>
       </c>
@@ -15191,16 +14686,16 @@
       </c>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A111" s="57"/>
-      <c r="B111" s="57"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="59"/>
       <c r="C111" s="50" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="51"/>
-      <c r="E111" s="83" t="s">
+      <c r="E111" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F111" s="84"/>
+      <c r="F111" s="53"/>
       <c r="G111" s="21">
         <v>2</v>
       </c>
@@ -15308,16 +14803,16 @@
       </c>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="59"/>
       <c r="C112" s="50" t="s">
         <v>130</v>
       </c>
       <c r="D112" s="51"/>
-      <c r="E112" s="83" t="s">
+      <c r="E112" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F112" s="84"/>
+      <c r="F112" s="53"/>
       <c r="G112" s="21">
         <v>2</v>
       </c>
@@ -15425,16 +14920,16 @@
       </c>
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A113" s="57"/>
-      <c r="B113" s="57"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="50" t="s">
         <v>131</v>
       </c>
       <c r="D113" s="51"/>
-      <c r="E113" s="83" t="s">
+      <c r="E113" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F113" s="84"/>
+      <c r="F113" s="53"/>
       <c r="G113" s="21">
         <v>2</v>
       </c>
@@ -15542,16 +15037,16 @@
       </c>
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A114" s="57"/>
-      <c r="B114" s="57"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="59"/>
       <c r="C114" s="50" t="s">
         <v>132</v>
       </c>
       <c r="D114" s="51"/>
-      <c r="E114" s="83" t="s">
+      <c r="E114" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F114" s="84"/>
+      <c r="F114" s="53"/>
       <c r="G114" s="21">
         <v>2</v>
       </c>
@@ -15659,16 +15154,16 @@
       </c>
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A115" s="57"/>
-      <c r="B115" s="57"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="59"/>
       <c r="C115" s="50" t="s">
         <v>133</v>
       </c>
       <c r="D115" s="51"/>
-      <c r="E115" s="83" t="s">
+      <c r="E115" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F115" s="84"/>
+      <c r="F115" s="53"/>
       <c r="G115" s="21">
         <v>2</v>
       </c>
@@ -15776,16 +15271,16 @@
       </c>
     </row>
     <row r="116" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A116" s="57"/>
-      <c r="B116" s="58"/>
+      <c r="A116" s="59"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="50" t="s">
         <v>134</v>
       </c>
       <c r="D116" s="51"/>
-      <c r="E116" s="83" t="s">
+      <c r="E116" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F116" s="84"/>
+      <c r="F116" s="53"/>
       <c r="G116" s="21">
         <v>2</v>
       </c>
@@ -15893,18 +15388,18 @@
       </c>
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A117" s="57"/>
-      <c r="B117" s="56" t="s">
+      <c r="A117" s="59"/>
+      <c r="B117" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C117" s="50" t="s">
         <v>42</v>
       </c>
       <c r="D117" s="51"/>
-      <c r="E117" s="54" t="s">
+      <c r="E117" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F117" s="55"/>
+      <c r="F117" s="57"/>
       <c r="G117" s="21">
         <v>5</v>
       </c>
@@ -16012,16 +15507,16 @@
       </c>
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A118" s="57"/>
-      <c r="B118" s="58"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="60"/>
       <c r="C118" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D118" s="51"/>
-      <c r="E118" s="54" t="s">
+      <c r="E118" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F118" s="55"/>
+      <c r="F118" s="57"/>
       <c r="G118" s="21">
         <v>5</v>
       </c>
@@ -16129,35 +15624,35 @@
       </c>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A119" s="57"/>
-      <c r="B119" s="75" t="s">
+      <c r="A119" s="59"/>
+      <c r="B119" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="76"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="81" t="s">
+      <c r="C119" s="65"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="82"/>
-      <c r="G119" s="54">
+      <c r="F119" s="62"/>
+      <c r="G119" s="56">
         <f>SUM(G17:G118)</f>
         <v>289</v>
       </c>
-      <c r="H119" s="55"/>
+      <c r="H119" s="57"/>
       <c r="I119" s="21">
         <f>SUM(I17:I118)</f>
         <v>330</v>
       </c>
       <c r="J119" s="21">
-        <f>SUM(J17:J118)</f>
-        <v>317</v>
+        <f>SUM(J17:J118)+K19+K36</f>
+        <v>318</v>
       </c>
       <c r="K119" s="21">
-        <f>SUM(K17:K118)-K19-K36</f>
-        <v>296</v>
+        <f>SUM(K17:K118)-K19-K36+L54</f>
+        <v>297</v>
       </c>
       <c r="L119" s="21">
-        <f>SUM(L17:L118)-L54</f>
+        <f>SUM(L17:L118)-L54+M26+M39</f>
         <v>278</v>
       </c>
       <c r="M119" s="21">
@@ -16165,63 +15660,63 @@
         <v>265</v>
       </c>
       <c r="N119" s="21">
-        <f>SUM(N17:N118)-O42-O62</f>
-        <v>242</v>
+        <f>SUM(N17:N118)+O42+O62</f>
+        <v>246</v>
       </c>
       <c r="O119" s="21">
         <f>SUM(O17:O118)-O42-O62</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P119" s="21">
         <f>SUM(P17:P118)</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q119" s="21">
-        <f>SUM(Q17:Q118)</f>
-        <v>201</v>
+        <f>SUM(Q17:Q118)+R34</f>
+        <v>203</v>
       </c>
       <c r="R119" s="21">
         <f>SUM(R17:R118)-R34</f>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S119" s="21">
         <f>SUM(S17:S118)</f>
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T119" s="21">
         <f>SUM(T17:T118)</f>
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="U119" s="21">
-        <f>SUM(U17:U118)</f>
-        <v>162</v>
+        <f>SUM(U17:U118)+V50</f>
+        <v>163</v>
       </c>
       <c r="V119" s="21">
         <f>SUM(V17:V118)-V50</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W119" s="21">
         <f>SUM(W17:W118)</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="X119" s="21">
-        <f>SUM(X17:X118)</f>
-        <v>136</v>
+        <f>SUM(X17:X118)+Y60</f>
+        <v>137</v>
       </c>
       <c r="Y119" s="21">
         <f>SUM(Y17:Y118)-Y60</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z119" s="21">
-        <f>SUM(Z17:Z118)</f>
-        <v>125</v>
+        <f>SUM(Z17:Z118)+AA66</f>
+        <v>126</v>
       </c>
       <c r="AA119" s="21">
         <f>SUM(AA17:AA118)-AA66</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB119" s="21">
-        <f>SUM(AB17:AB118)</f>
+        <f>SUM(AB17:AB118)+AC75</f>
         <v>107</v>
       </c>
       <c r="AC119" s="21">
@@ -16233,7 +15728,7 @@
         <v>98</v>
       </c>
       <c r="AE119" s="21">
-        <f>SUM(AE17:AE118)</f>
+        <f>SUM(AE17:AE118)+AF78</f>
         <v>94</v>
       </c>
       <c r="AF119" s="21">
@@ -16245,11 +15740,11 @@
         <v>86</v>
       </c>
       <c r="AH119" s="21">
-        <f>SUM(AH17:AH118)</f>
+        <f>SUM(AH17:AH118)+AI80+AI93+AI98</f>
         <v>79</v>
       </c>
       <c r="AI119" s="21">
-        <f>SUM(AI17:AI118)-AI98-AI93-AI80</f>
+        <f>SUM(AI17:AI118)-AI98-AI93-AI80+AJ107</f>
         <v>49</v>
       </c>
       <c r="AJ119" s="21">
@@ -16278,97 +15773,97 @@
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A120" s="58"/>
-      <c r="B120" s="78"/>
-      <c r="C120" s="79"/>
-      <c r="D120" s="80"/>
-      <c r="E120" s="81" t="s">
+      <c r="A120" s="60"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="82"/>
-      <c r="G120" s="54">
+      <c r="F120" s="62"/>
+      <c r="G120" s="56">
         <f>SUM(H17:H118)</f>
         <v>330</v>
       </c>
-      <c r="H120" s="55"/>
+      <c r="H120" s="57"/>
       <c r="I120" s="21">
         <f>SUM(I17:I118)</f>
         <v>330</v>
       </c>
       <c r="J120" s="21">
-        <f>SUM(J17:J118)+K19+K36</f>
-        <v>322</v>
+        <f>SUM(J17:J118)</f>
+        <v>323</v>
       </c>
       <c r="K120" s="21">
-        <f>SUM(K17:K118)-K19-K36+L54</f>
-        <v>298</v>
+        <f>SUM(K17:K118)-K19-K36</f>
+        <v>299</v>
       </c>
       <c r="L120" s="21">
-        <f>SUM(L17:L118)-L54+M26+M39</f>
+        <f>SUM(L17:L118)-L54</f>
         <v>282</v>
       </c>
       <c r="M120" s="21">
-        <f>SUM(M17:M118)+M26+M39</f>
-        <v>273</v>
+        <f>SUM(M17:M118)-M26-M39</f>
+        <v>265</v>
       </c>
       <c r="N120" s="21">
-        <f>SUM(N17:N118)+O42+O62</f>
-        <v>246</v>
+        <f>SUM(N17:N118)</f>
+        <v>248</v>
       </c>
       <c r="O120" s="21">
         <f>SUM(O17:O118)-O42-O62</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P120" s="21">
         <f>SUM(P17:P118)</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q120" s="21">
-        <f>SUM(Q17:Q118)+R34</f>
-        <v>209</v>
+        <f>SUM(Q17:Q118)</f>
+        <v>211</v>
       </c>
       <c r="R120" s="21">
         <f>SUM(R17:R118)-R34</f>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S120" s="21">
         <f>SUM(S17:S118)</f>
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T120" s="21">
         <f>SUM(T17:T118)</f>
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="U120" s="21">
-        <f>SUM(U17:U118)+V50</f>
-        <v>164</v>
+        <f>SUM(U17:U118)</f>
+        <v>165</v>
       </c>
       <c r="V120" s="21">
         <f>SUM(V17:V118)-V50</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W120" s="21">
         <f>SUM(W17:W118)</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="X120" s="21">
-        <f>SUM(X17:X118)+Y60</f>
-        <v>139</v>
+        <f>SUM(X17:X118)</f>
+        <v>140</v>
       </c>
       <c r="Y120" s="21">
         <f>SUM(Y17:Y118)-Y60</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z120" s="21">
-        <f>SUM(Z17:Z118)+AA66</f>
-        <v>127</v>
+        <f>SUM(Z17:Z118)</f>
+        <v>128</v>
       </c>
       <c r="AA120" s="21">
         <f>SUM(AA17:AA118)-AA66</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB120" s="21">
-        <f>SUM(AB17:AB118)+AC75</f>
+        <f>SUM(AB17:AB118)</f>
         <v>110</v>
       </c>
       <c r="AC120" s="21">
@@ -16380,7 +15875,7 @@
         <v>98</v>
       </c>
       <c r="AE120" s="21">
-        <f>SUM(AE17:AE118)+AF78</f>
+        <f>SUM(AE17:AE118)</f>
         <v>98</v>
       </c>
       <c r="AF120" s="21">
@@ -16392,11 +15887,11 @@
         <v>86</v>
       </c>
       <c r="AH120" s="21">
-        <f>SUM(AH17:AH118)+AI80+AI93+AI98</f>
+        <f>SUM(AH17:AH118)</f>
         <v>86</v>
       </c>
       <c r="AI120" s="21">
-        <f>SUM(AI17:AI118)-AI98-AI93-AI80-AJ107</f>
+        <f>SUM(AI17:AI118)-AI98-AI93-AI80</f>
         <v>48</v>
       </c>
       <c r="AJ120" s="21">
@@ -16426,6 +15921,208 @@
     </row>
   </sheetData>
   <mergeCells count="226">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="B92:B104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B119:D120"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B51:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B105:B116"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B81:B91"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="A17:A120"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="E111:F111"/>
     <mergeCell ref="E112:F112"/>
@@ -16450,208 +16147,6 @@
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A17:A120"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B105:B116"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B81:B91"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B119:D120"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="B51:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B92:B104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -16661,10 +16156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE103"/>
+  <dimension ref="A1:BE112"/>
   <sheetViews>
-    <sheetView topLeftCell="C71" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD98" sqref="AD98"/>
+    <sheetView tabSelected="1" topLeftCell="D69" zoomScale="122" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16682,11 +16177,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="63" t="s">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="70" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="1"/>
@@ -16696,9 +16191,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="1"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
@@ -16706,10 +16201,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53"/>
+      <c r="A3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="83"/>
       <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
@@ -16720,10 +16215,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="72"/>
+      <c r="A4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="79"/>
       <c r="C4" s="4">
         <v>45773</v>
       </c>
@@ -16734,10 +16229,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="72"/>
+      <c r="A5" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="79"/>
       <c r="C5" s="4">
         <v>45793</v>
       </c>
@@ -16757,12 +16252,12 @@
     </row>
     <row r="7" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -16866,10 +16361,10 @@
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="5">
         <f ca="1">SUM(D9:D13)</f>
         <v>156</v>
@@ -16893,14 +16388,14 @@
       <c r="B17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="87" t="s">
+      <c r="D17" s="94"/>
+      <c r="E17" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="19" t="s">
         <v>10</v>
       </c>
@@ -16998,18 +16493,18 @@
       <c r="BE17" s="2"/>
     </row>
     <row r="18" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="86" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="21">
         <v>7</v>
       </c>
@@ -17078,16 +16573,16 @@
       </c>
     </row>
     <row r="19" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="89" t="s">
+      <c r="A19" s="86"/>
+      <c r="B19" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="86" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="21">
         <v>2</v>
       </c>
@@ -17098,7 +16593,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" s="22">
         <v>0</v>
@@ -17156,18 +16651,18 @@
       </c>
     </row>
     <row r="20" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -17188,16 +16683,16 @@
       <c r="AB20" s="21"/>
     </row>
     <row r="21" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="90"/>
-      <c r="B21" s="89" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="86" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="86"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="21">
         <v>2</v>
       </c>
@@ -17211,7 +16706,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21" s="22">
         <v>0</v>
@@ -17266,19 +16761,19 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
@@ -17298,18 +16793,18 @@
       <c r="AB22" s="21"/>
     </row>
     <row r="23" spans="1:57" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="86" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="86"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="21">
         <v>2</v>
       </c>
@@ -17378,16 +16873,16 @@
       </c>
     </row>
     <row r="24" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="89" t="s">
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="86" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="86"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="21">
         <v>3</v>
       </c>
@@ -17456,16 +16951,16 @@
       </c>
     </row>
     <row r="25" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="89" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="86" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="86"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="21">
         <v>2</v>
       </c>
@@ -17534,16 +17029,16 @@
       </c>
     </row>
     <row r="26" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="89" t="s">
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="86" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="86"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="21">
         <v>2</v>
       </c>
@@ -17612,16 +17107,16 @@
       </c>
     </row>
     <row r="27" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="89" t="s">
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="86" t="s">
+      <c r="D27" s="88"/>
+      <c r="E27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="86"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="21">
         <v>2</v>
       </c>
@@ -17690,16 +17185,16 @@
       </c>
     </row>
     <row r="28" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="89" t="s">
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="86" t="s">
+      <c r="D28" s="88"/>
+      <c r="E28" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="86"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="21">
         <v>3</v>
       </c>
@@ -17768,16 +17263,16 @@
       </c>
     </row>
     <row r="29" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="89" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="86" t="s">
+      <c r="D29" s="88"/>
+      <c r="E29" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="86"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="21">
         <v>3</v>
       </c>
@@ -17800,7 +17295,7 @@
         <v>6</v>
       </c>
       <c r="N29" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O29" s="22">
         <v>0</v>
@@ -17846,12 +17341,12 @@
       </c>
     </row>
     <row r="30" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -17861,7 +17356,7 @@
       <c r="M30" s="21"/>
       <c r="N30" s="9"/>
       <c r="O30" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
@@ -17878,18 +17373,18 @@
       <c r="AB30" s="21"/>
     </row>
     <row r="31" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90" t="s">
+      <c r="A31" s="86"/>
+      <c r="B31" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="86" t="s">
+      <c r="D31" s="88"/>
+      <c r="E31" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="86"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="21">
         <v>4</v>
       </c>
@@ -17958,16 +17453,16 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="89" t="s">
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="86" t="s">
+      <c r="D32" s="88"/>
+      <c r="E32" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="86"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="21">
         <v>6</v>
       </c>
@@ -17993,7 +17488,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P32" s="22">
         <v>0</v>
@@ -18036,12 +17531,12 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -18068,16 +17563,16 @@
       <c r="AB33" s="21"/>
     </row>
     <row r="34" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="89" t="s">
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="86" t="s">
+      <c r="D34" s="88"/>
+      <c r="E34" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="86"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="21">
         <v>4</v>
       </c>
@@ -18146,16 +17641,16 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="89" t="s">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="86" t="s">
+      <c r="D35" s="88"/>
+      <c r="E35" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="86"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="21">
         <v>4</v>
       </c>
@@ -18224,16 +17719,16 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="89" t="s">
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="86" t="s">
+      <c r="D36" s="88"/>
+      <c r="E36" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="86"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="21">
         <v>2</v>
       </c>
@@ -18259,10 +17754,10 @@
         <v>4</v>
       </c>
       <c r="O36" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P36" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="22">
         <v>0</v>
@@ -18302,12 +17797,12 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -18319,7 +17814,7 @@
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
@@ -18334,16 +17829,16 @@
       <c r="AB37" s="21"/>
     </row>
     <row r="38" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="90"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="89" t="s">
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="54" t="s">
+      <c r="D38" s="88"/>
+      <c r="E38" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="21">
         <v>4</v>
       </c>
@@ -18412,16 +17907,16 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="89" t="s">
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="86" t="s">
+      <c r="D39" s="88"/>
+      <c r="E39" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="86"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="21">
         <v>3</v>
       </c>
@@ -18453,7 +17948,7 @@
         <v>6</v>
       </c>
       <c r="Q39" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R39" s="22">
         <v>0</v>
@@ -18490,12 +17985,12 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="90"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -18508,7 +18003,7 @@
       <c r="P40" s="21"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
@@ -18522,18 +18017,18 @@
       <c r="AB40" s="21"/>
     </row>
     <row r="41" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="90"/>
-      <c r="B41" s="90" t="s">
+      <c r="A41" s="86"/>
+      <c r="B41" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="86" t="s">
+      <c r="D41" s="88"/>
+      <c r="E41" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="86"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="21">
         <v>3</v>
       </c>
@@ -18559,7 +18054,7 @@
         <v>4</v>
       </c>
       <c r="O41" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P41" s="22">
         <v>0</v>
@@ -18602,12 +18097,12 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="90"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -18618,7 +18113,7 @@
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q42" s="21"/>
       <c r="R42" s="9"/>
@@ -18634,16 +18129,16 @@
       <c r="AB42" s="21"/>
     </row>
     <row r="43" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="90"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="89" t="s">
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="86" t="s">
+      <c r="D43" s="88"/>
+      <c r="E43" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="86"/>
+      <c r="F43" s="85"/>
       <c r="G43" s="21">
         <v>6</v>
       </c>
@@ -18712,16 +18207,16 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="90"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="89" t="s">
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="86" t="s">
+      <c r="D44" s="88"/>
+      <c r="E44" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="86"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="21">
         <v>4</v>
       </c>
@@ -18790,16 +18285,16 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="90"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="89" t="s">
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="89"/>
-      <c r="E45" s="86" t="s">
+      <c r="D45" s="88"/>
+      <c r="E45" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="86"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="21">
         <v>4</v>
       </c>
@@ -18828,7 +18323,7 @@
         <v>6</v>
       </c>
       <c r="P45" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q45" s="22">
         <v>0</v>
@@ -18868,12 +18363,12 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="90"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -18885,7 +18380,7 @@
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
@@ -18900,16 +18395,16 @@
       <c r="AB46" s="21"/>
     </row>
     <row r="47" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="89" t="s">
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="89"/>
-      <c r="E47" s="86" t="s">
+      <c r="D47" s="88"/>
+      <c r="E47" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="86"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="21">
         <v>4</v>
       </c>
@@ -18978,16 +18473,16 @@
       </c>
     </row>
     <row r="48" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="89" t="s">
+      <c r="A48" s="86"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="86" t="s">
+      <c r="D48" s="88"/>
+      <c r="E48" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="86"/>
+      <c r="F48" s="85"/>
       <c r="G48" s="21">
         <v>6</v>
       </c>
@@ -19056,16 +18551,16 @@
       </c>
     </row>
     <row r="49" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="90"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="89" t="s">
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="86" t="s">
+      <c r="D49" s="88"/>
+      <c r="E49" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="86"/>
+      <c r="F49" s="85"/>
       <c r="G49" s="21">
         <v>4</v>
       </c>
@@ -19134,16 +18629,16 @@
       </c>
     </row>
     <row r="50" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="89" t="s">
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="89"/>
-      <c r="E50" s="86" t="s">
+      <c r="D50" s="88"/>
+      <c r="E50" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="86"/>
+      <c r="F50" s="85"/>
       <c r="G50" s="21">
         <v>6</v>
       </c>
@@ -19212,16 +18707,16 @@
       </c>
     </row>
     <row r="51" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="89" t="s">
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="86" t="s">
+      <c r="D51" s="88"/>
+      <c r="E51" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="86"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="21">
         <v>5</v>
       </c>
@@ -19259,7 +18754,7 @@
         <v>4</v>
       </c>
       <c r="S51" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51" s="22">
         <v>0</v>
@@ -19290,12 +18785,12 @@
       </c>
     </row>
     <row r="52" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -19322,16 +18817,16 @@
       <c r="AB52" s="21"/>
     </row>
     <row r="53" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="90"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="89" t="s">
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="86" t="s">
+      <c r="D53" s="88"/>
+      <c r="E53" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="86"/>
+      <c r="F53" s="85"/>
       <c r="G53" s="21">
         <v>6</v>
       </c>
@@ -19400,16 +18895,16 @@
       </c>
     </row>
     <row r="54" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="90"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="89" t="s">
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="89"/>
-      <c r="E54" s="86" t="s">
+      <c r="D54" s="88"/>
+      <c r="E54" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="86"/>
+      <c r="F54" s="85"/>
       <c r="G54" s="21">
         <v>3</v>
       </c>
@@ -19450,7 +18945,7 @@
         <v>4</v>
       </c>
       <c r="T54" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U54" s="22">
         <v>0</v>
@@ -19478,12 +18973,12 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="90"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="55"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -19499,7 +18994,7 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
@@ -19510,16 +19005,16 @@
       <c r="AB55" s="21"/>
     </row>
     <row r="56" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="89" t="s">
+      <c r="A56" s="86"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="86" t="s">
+      <c r="D56" s="88"/>
+      <c r="E56" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="86"/>
+      <c r="F56" s="85"/>
       <c r="G56" s="21">
         <v>6</v>
       </c>
@@ -19588,16 +19083,16 @@
       </c>
     </row>
     <row r="57" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="89" t="s">
+      <c r="A57" s="86"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="86" t="s">
+      <c r="D57" s="88"/>
+      <c r="E57" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="86"/>
+      <c r="F57" s="85"/>
       <c r="G57" s="21">
         <v>10</v>
       </c>
@@ -19666,18 +19161,18 @@
       </c>
     </row>
     <row r="58" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="90"/>
-      <c r="B58" s="90" t="s">
+      <c r="A58" s="86"/>
+      <c r="B58" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="86" t="s">
+      <c r="D58" s="88"/>
+      <c r="E58" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="86"/>
+      <c r="F58" s="85"/>
       <c r="G58" s="21">
         <v>1</v>
       </c>
@@ -19746,16 +19241,16 @@
       </c>
     </row>
     <row r="59" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="89" t="s">
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="89"/>
-      <c r="E59" s="86" t="s">
+      <c r="D59" s="88"/>
+      <c r="E59" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="86"/>
+      <c r="F59" s="85"/>
       <c r="G59" s="21">
         <v>1</v>
       </c>
@@ -19824,16 +19319,16 @@
       </c>
     </row>
     <row r="60" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="59" t="s">
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="86" t="s">
+      <c r="D60" s="55"/>
+      <c r="E60" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="86"/>
+      <c r="F60" s="85"/>
       <c r="G60" s="21">
         <v>1</v>
       </c>
@@ -19902,16 +19397,16 @@
       </c>
     </row>
     <row r="61" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="89" t="s">
+      <c r="A61" s="86"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="D61" s="89"/>
-      <c r="E61" s="86" t="s">
+      <c r="D61" s="88"/>
+      <c r="E61" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="F61" s="86"/>
+      <c r="F61" s="85"/>
       <c r="G61" s="21">
         <v>1</v>
       </c>
@@ -19980,16 +19475,16 @@
       </c>
     </row>
     <row r="62" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="90"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="89" t="s">
+      <c r="A62" s="86"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="D62" s="89"/>
-      <c r="E62" s="86" t="s">
+      <c r="D62" s="88"/>
+      <c r="E62" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="86"/>
+      <c r="F62" s="85"/>
       <c r="G62" s="21">
         <v>1</v>
       </c>
@@ -20058,16 +19553,16 @@
       </c>
     </row>
     <row r="63" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="90"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="89" t="s">
+      <c r="A63" s="86"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="86" t="s">
+      <c r="D63" s="88"/>
+      <c r="E63" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="86"/>
+      <c r="F63" s="85"/>
       <c r="G63" s="21">
         <v>1</v>
       </c>
@@ -20136,18 +19631,18 @@
       </c>
     </row>
     <row r="64" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="90"/>
-      <c r="B64" s="90" t="s">
+      <c r="A64" s="86"/>
+      <c r="B64" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="89" t="s">
+      <c r="C64" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="89"/>
-      <c r="E64" s="86" t="s">
+      <c r="D64" s="88"/>
+      <c r="E64" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="F64" s="86"/>
+      <c r="F64" s="85"/>
       <c r="G64" s="21">
         <v>2</v>
       </c>
@@ -20216,16 +19711,16 @@
       </c>
     </row>
     <row r="65" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="90"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="89" t="s">
+      <c r="A65" s="86"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="89"/>
-      <c r="E65" s="86" t="s">
+      <c r="D65" s="88"/>
+      <c r="E65" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="86"/>
+      <c r="F65" s="85"/>
       <c r="G65" s="21">
         <v>2</v>
       </c>
@@ -20294,16 +19789,16 @@
       </c>
     </row>
     <row r="66" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="90"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="89" t="s">
+      <c r="A66" s="86"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="89"/>
-      <c r="E66" s="86" t="s">
+      <c r="D66" s="88"/>
+      <c r="E66" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="F66" s="86"/>
+      <c r="F66" s="85"/>
       <c r="G66" s="21">
         <v>2</v>
       </c>
@@ -20372,16 +19867,16 @@
       </c>
     </row>
     <row r="67" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="90"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="89" t="s">
+      <c r="A67" s="86"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="86" t="s">
+      <c r="D67" s="88"/>
+      <c r="E67" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="86"/>
+      <c r="F67" s="85"/>
       <c r="G67" s="21">
         <v>2</v>
       </c>
@@ -20450,16 +19945,16 @@
       </c>
     </row>
     <row r="68" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="90"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="89" t="s">
+      <c r="A68" s="86"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="89"/>
-      <c r="E68" s="86" t="s">
+      <c r="D68" s="88"/>
+      <c r="E68" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="86"/>
+      <c r="F68" s="85"/>
       <c r="G68" s="21">
         <v>2</v>
       </c>
@@ -20528,16 +20023,16 @@
       </c>
     </row>
     <row r="69" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="90"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="89" t="s">
+      <c r="A69" s="86"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="D69" s="89"/>
-      <c r="E69" s="86" t="s">
+      <c r="D69" s="88"/>
+      <c r="E69" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="F69" s="86"/>
+      <c r="F69" s="85"/>
       <c r="G69" s="21">
         <v>1</v>
       </c>
@@ -20590,7 +20085,7 @@
         <v>2</v>
       </c>
       <c r="X69" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y69" s="22">
         <v>0</v>
@@ -20606,12 +20101,12 @@
       </c>
     </row>
     <row r="70" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="90"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
@@ -20631,25 +20126,25 @@
       <c r="W70" s="21"/>
       <c r="X70" s="21"/>
       <c r="Y70" s="23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z70" s="21"/>
       <c r="AA70" s="21"/>
       <c r="AB70" s="21"/>
     </row>
     <row r="71" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="90"/>
-      <c r="B71" s="90" t="s">
+      <c r="A71" s="86"/>
+      <c r="B71" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="89" t="s">
+      <c r="C71" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="85" t="s">
+      <c r="D71" s="88"/>
+      <c r="E71" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="85"/>
+      <c r="F71" s="90"/>
       <c r="G71" s="21">
         <v>1</v>
       </c>
@@ -20718,16 +20213,16 @@
       </c>
     </row>
     <row r="72" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="90"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="89" t="s">
+      <c r="A72" s="86"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="89"/>
-      <c r="E72" s="85" t="s">
+      <c r="D72" s="88"/>
+      <c r="E72" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="85"/>
+      <c r="F72" s="90"/>
       <c r="G72" s="21">
         <v>2</v>
       </c>
@@ -20783,7 +20278,7 @@
         <v>1</v>
       </c>
       <c r="Y72" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z72" s="22">
         <v>0</v>
@@ -20796,12 +20291,12 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="90"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
@@ -20828,16 +20323,16 @@
       <c r="AB73" s="9"/>
     </row>
     <row r="74" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="90"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="89" t="s">
+      <c r="A74" s="86"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="89"/>
-      <c r="E74" s="85" t="s">
+      <c r="D74" s="88"/>
+      <c r="E74" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="85"/>
+      <c r="F74" s="90"/>
       <c r="G74" s="21">
         <v>1</v>
       </c>
@@ -20906,16 +20401,16 @@
       </c>
     </row>
     <row r="75" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="90"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="89" t="s">
+      <c r="A75" s="86"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="D75" s="89"/>
-      <c r="E75" s="85" t="s">
+      <c r="D75" s="88"/>
+      <c r="E75" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F75" s="85"/>
+      <c r="F75" s="90"/>
       <c r="G75" s="21">
         <v>2</v>
       </c>
@@ -20971,7 +20466,7 @@
         <v>1</v>
       </c>
       <c r="Y75" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z75" s="22">
         <v>0</v>
@@ -20984,12 +20479,12 @@
       </c>
     </row>
     <row r="76" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="90"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
@@ -21016,16 +20511,16 @@
       <c r="AB76" s="21"/>
     </row>
     <row r="77" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="90"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="89" t="s">
+      <c r="A77" s="86"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="D77" s="89"/>
-      <c r="E77" s="85" t="s">
+      <c r="D77" s="88"/>
+      <c r="E77" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="F77" s="85"/>
+      <c r="F77" s="90"/>
       <c r="G77" s="21">
         <v>1</v>
       </c>
@@ -21094,16 +20589,16 @@
       </c>
     </row>
     <row r="78" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="90"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="59" t="s">
+      <c r="A78" s="86"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="85" t="s">
+      <c r="D78" s="55"/>
+      <c r="E78" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F78" s="85"/>
+      <c r="F78" s="90"/>
       <c r="G78" s="21">
         <v>1</v>
       </c>
@@ -21172,18 +20667,18 @@
       </c>
     </row>
     <row r="79" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
-      <c r="B79" s="90" t="s">
+      <c r="A79" s="86"/>
+      <c r="B79" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="89" t="s">
+      <c r="C79" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="89"/>
-      <c r="E79" s="86" t="s">
+      <c r="D79" s="88"/>
+      <c r="E79" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="86"/>
+      <c r="F79" s="85"/>
       <c r="G79" s="21">
         <v>5</v>
       </c>
@@ -21252,16 +20747,16 @@
       </c>
     </row>
     <row r="80" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
-      <c r="B80" s="90"/>
-      <c r="C80" s="89" t="s">
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="89"/>
-      <c r="E80" s="86" t="s">
+      <c r="D80" s="88"/>
+      <c r="E80" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="86"/>
+      <c r="F80" s="85"/>
       <c r="G80" s="21">
         <v>5</v>
       </c>
@@ -21330,31 +20825,31 @@
       </c>
     </row>
     <row r="81" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="90"/>
+      <c r="A81" s="86"/>
       <c r="B81" s="92" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="92"/>
       <c r="D81" s="92"/>
-      <c r="E81" s="93" t="s">
+      <c r="E81" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="93"/>
-      <c r="G81" s="86">
+      <c r="F81" s="89"/>
+      <c r="G81" s="85">
         <f>SUM(G18:G80)</f>
         <v>157</v>
       </c>
-      <c r="H81" s="86"/>
+      <c r="H81" s="85"/>
       <c r="I81" s="21">
         <f>SUM(I18:I80)</f>
         <v>169</v>
       </c>
       <c r="J81" s="21">
-        <f>SUM(J18:J80)</f>
+        <f>SUM(J18:J80)+K20</f>
         <v>160</v>
       </c>
       <c r="K81" s="21">
-        <f>SUM(K18:K80)-K20</f>
+        <f>SUM(K18:K80)-K20+L22</f>
         <v>156</v>
       </c>
       <c r="L81" s="21">
@@ -21366,52 +20861,52 @@
         <v>149</v>
       </c>
       <c r="N81" s="21">
-        <f>SUM(N18:N80)</f>
+        <f>SUM(N18:N80)+O30</f>
         <v>142</v>
       </c>
       <c r="O81" s="21">
-        <f>SUM(O18:O80)-O30+P33-P42</f>
+        <f>SUM(O18:O80)-O30+P33+P42</f>
         <v>135</v>
       </c>
       <c r="P81" s="21">
-        <f>SUM(P18:P80)-P33-P42-Q37-Q46</f>
-        <v>114</v>
+        <f>SUM(P18:P80)-P33-P42+Q37+Q46</f>
+        <v>118</v>
       </c>
       <c r="Q81" s="21">
-        <f>SUM(Q18:Q80)-Q37-Q46-R40</f>
-        <v>88</v>
+        <f>SUM(Q18:Q80)-Q37-Q46+R40</f>
+        <v>91</v>
       </c>
       <c r="R81" s="21">
         <f>SUM(R18:R80)-R40</f>
         <v>74</v>
       </c>
       <c r="S81" s="21">
-        <f>SUM(S18:S80)</f>
+        <f>SUM(S18:S80)+T52</f>
         <v>65</v>
       </c>
       <c r="T81" s="21">
-        <f>SUM(T18:T80)-T52</f>
+        <f>SUM(T18:T80)-T52+U55</f>
         <v>53</v>
       </c>
       <c r="U81" s="21">
-        <f t="shared" ref="U81:W81" si="0">SUM(U18:U80)</f>
-        <v>45</v>
+        <f>SUM(U18:U80)-U55</f>
+        <v>44</v>
       </c>
       <c r="V81" s="21">
         <f>SUM(V18:V80)</f>
         <v>34</v>
       </c>
       <c r="W81" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U81:W81" si="0">SUM(W18:W80)</f>
         <v>28</v>
       </c>
       <c r="X81" s="21">
-        <f>SUM(X18:X80)-Y70</f>
-        <v>20</v>
+        <f>SUM(X18:X80)+Y70</f>
+        <v>21</v>
       </c>
       <c r="Y81" s="21">
         <f>SUM(Y18:Y80)-Y70+Z73+Z76</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z81" s="21">
         <f>SUM(Z18:Z80)-Z73-Z76</f>
@@ -21427,29 +20922,29 @@
       </c>
     </row>
     <row r="82" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
+      <c r="A82" s="86"/>
       <c r="B82" s="92"/>
       <c r="C82" s="92"/>
       <c r="D82" s="92"/>
-      <c r="E82" s="93" t="s">
+      <c r="E82" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="93"/>
-      <c r="G82" s="86">
+      <c r="F82" s="89"/>
+      <c r="G82" s="85">
         <f>SUM(H18:H80)</f>
         <v>169</v>
       </c>
-      <c r="H82" s="86"/>
+      <c r="H82" s="85"/>
       <c r="I82" s="21">
         <f>SUM(I18:I80)</f>
         <v>169</v>
       </c>
       <c r="J82" s="21">
-        <f>SUM(J18:J80)+K20</f>
+        <f>SUM(J18:J80)</f>
         <v>162</v>
       </c>
       <c r="K82" s="21">
-        <f>SUM(K18:K80)-K20+L22</f>
+        <f>SUM(K18:K80)-K20</f>
         <v>158</v>
       </c>
       <c r="L82" s="21">
@@ -21461,7 +20956,7 @@
         <v>149</v>
       </c>
       <c r="N82" s="21">
-        <f>SUM(N18:N80)+O30</f>
+        <f>SUM(N18:N80)</f>
         <v>145</v>
       </c>
       <c r="O82" s="21">
@@ -21470,27 +20965,27 @@
       </c>
       <c r="P82" s="21">
         <f>SUM(P18:P80)-P33-P42</f>
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q82" s="21">
         <f>SUM(Q18:Q80)-Q37-Q46</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R82" s="21">
         <f>SUM(R18:R80)-R40</f>
         <v>74</v>
       </c>
       <c r="S82" s="21">
-        <f>SUM(S18:S80)-T52</f>
+        <f>SUM(S18:S80)</f>
         <v>64</v>
       </c>
       <c r="T82" s="21">
         <f>SUM(T18:T80)-T52</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U82" s="21">
-        <f>SUM(U18:U80)</f>
-        <v>45</v>
+        <f>SUM(U18:U80)-U55</f>
+        <v>44</v>
       </c>
       <c r="V82" s="21">
         <f>SUM(V18:V80)</f>
@@ -21502,11 +20997,11 @@
       </c>
       <c r="X82" s="21">
         <f>SUM(X18:X80)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y82" s="21">
         <f>SUM(Y18:Y80)-Y70</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z82" s="21">
         <f>SUM(Z18:Z80)-Z73-Z76</f>
@@ -21521,12 +21016,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C103" s="91"/>
       <c r="D103" s="91"/>
     </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="149">
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B41:B57"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A5:B5"/>
@@ -21551,131 +21176,6 @@
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B41:B57"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
